--- a/Data files/Performance_Scan_Data.xlsx
+++ b/Data files/Performance_Scan_Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8445" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data_01" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,14 +14,14 @@
     <sheet name="First Scan" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -44,6 +44,12 @@
       <sz val="11"/>
       <u val="single"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <color rgb="FF0052CC"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
@@ -153,7 +159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -183,6 +189,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,7 +463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -463,7 +472,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -478,8 +487,8 @@
     <col width="21.42578125" bestFit="1" customWidth="1" style="6" min="8" max="8"/>
     <col width="9.7109375" bestFit="1" customWidth="1" style="6" min="9" max="9"/>
     <col width="9.140625" bestFit="1" customWidth="1" style="6" min="10" max="10"/>
-    <col width="9.140625" customWidth="1" style="6" min="11" max="11"/>
-    <col width="9.140625" customWidth="1" style="6" min="12" max="16384"/>
+    <col width="9.140625" customWidth="1" style="6" min="11" max="13"/>
+    <col width="9.140625" customWidth="1" style="6" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -537,12 +546,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://zenoti.webflow.io/spa-management-software </t>
+          <t>https://test.impact.science/case-studies/</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -552,123 +561,123 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1.8s</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>5.4s</t>
+        </is>
+      </c>
+      <c r="J2" s="11" t="inlineStr">
+        <is>
+          <t>870KB</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="16.5" customHeight="1" s="6">
+      <c r="A3" s="15" t="inlineStr">
+        <is>
+          <t>https://test.impact.science/case-studies/journal-of-bone-and-joint-surgery.html</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>73%</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>273ms</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>5.7s</t>
-        </is>
-      </c>
-      <c r="J2" s="11" t="inlineStr">
-        <is>
-          <t>3.06MB</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://zenoti.webflow.io/medical-spa-software </t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>74%</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1.7s</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>5.2s</t>
+        </is>
+      </c>
+      <c r="J3" s="11" t="inlineStr">
+        <is>
+          <t>1.92MB</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>https://test.impact.science/case-studies/demystifying-data-provenance.html</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>399ms</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>3.7s</t>
-        </is>
-      </c>
-      <c r="J3" s="11" t="inlineStr">
-        <is>
-          <t>3.68MB</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="30" customHeight="1" s="6">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://zenoti.webflow.io/fitness-center-management-software </t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>86%</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>318ms</t>
+          <t>1.8s</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>3.8s</t>
+          <t>4.5s</t>
         </is>
       </c>
       <c r="J4" s="11" t="inlineStr">
         <is>
-          <t>1.24MB</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://zenoti.webflow.io/salon-management-software </t>
+          <t>973KB</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="16.5" customHeight="1" s="6">
+      <c r="A5" s="15" t="inlineStr">
+        <is>
+          <t>https://test.impact.science/case-studies/taking-cutting-edge-research-to-the-masses.html</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -678,43 +687,86 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.3s</t>
+          <t>1.8s</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2.6s</t>
+          <t>4.6s</t>
         </is>
       </c>
       <c r="J5" s="11" t="inlineStr">
         <is>
-          <t>3.77MB</t>
+          <t>1.02MB</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="J6" s="11" t="n"/>
-    </row>
-    <row r="7">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>https://test.impact.science/case-studies/analysing-risks-in-uk-pension-scheme.html</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>66%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1.8s</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>5.3s</t>
+        </is>
+      </c>
+      <c r="J6" s="11" t="inlineStr">
+        <is>
+          <t>954KB</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="16.5" customHeight="1" s="6">
+      <c r="A7" s="15" t="n"/>
       <c r="J7" s="11" t="n"/>
     </row>
     <row r="8">
+      <c r="A8" s="2" t="n"/>
       <c r="J8" s="11" t="n"/>
     </row>
-    <row r="9">
+    <row r="9" ht="16.5" customHeight="1" s="6">
+      <c r="A9" s="15" t="n"/>
       <c r="J9" s="11" t="n"/>
     </row>
     <row r="10">
+      <c r="A10" s="2" t="n"/>
       <c r="J10" s="11" t="n"/>
     </row>
     <row r="11">
@@ -1887,75 +1939,13 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="C10:C232 C2:C5" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C10:C232 C2:C6" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation sqref="B10:B232 B2:B5" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B10:B232 B2:B6" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"India, Canada, China, UK, USA"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="A2" location="1" display="https://www.zenoti.com/spa-management-software - 1" r:id="rId57"/>
-    <hyperlink ref="A3" location="1" display="https://www.zenoti.com/medical-spa-software - 1" r:id="rId58"/>
-    <hyperlink ref="A4" location="1" display="https://www.zenoti.com/fitness-center-management-software - 1" r:id="rId59"/>
-    <hyperlink ref="A5" location="1" display="https://www.zenoti.com/salon-management-software#1" r:id="rId60"/>
-    <hyperlink ref="A2" location="1" display="https://www.zenoti.com/spa-management-software - 1" r:id="rId57"/>
-    <hyperlink ref="A3" location="1" display="https://www.zenoti.com/medical-spa-software - 1" r:id="rId58"/>
-    <hyperlink ref="A4" location="1" display="https://www.zenoti.com/fitness-center-management-software - 1" r:id="rId59"/>
-    <hyperlink ref="A5" location="1" display="https://www.zenoti.com/salon-management-software#1" r:id="rId60"/>
-    <hyperlink ref="A2" location="1" display="https://www.zenoti.com/spa-management-software - 1" r:id="rId57"/>
-    <hyperlink ref="A3" location="1" display="https://www.zenoti.com/medical-spa-software - 1" r:id="rId58"/>
-    <hyperlink ref="A4" location="1" display="https://www.zenoti.com/fitness-center-management-software - 1" r:id="rId59"/>
-    <hyperlink ref="A5" location="1" display="https://www.zenoti.com/salon-management-software#1" r:id="rId60"/>
-    <hyperlink ref="A2" location="1" display="https://www.zenoti.com/spa-management-software - 1" r:id="rId57"/>
-    <hyperlink ref="A3" location="1" display="https://www.zenoti.com/medical-spa-software - 1" r:id="rId58"/>
-    <hyperlink ref="A4" location="1" display="https://www.zenoti.com/fitness-center-management-software - 1" r:id="rId59"/>
-    <hyperlink ref="A5" location="1" display="https://www.zenoti.com/salon-management-software#1" r:id="rId60"/>
-    <hyperlink ref="A2" location="1" display="https://www.zenoti.com/spa-management-software - 1" r:id="rId57"/>
-    <hyperlink ref="A3" location="1" display="https://www.zenoti.com/medical-spa-software - 1" r:id="rId58"/>
-    <hyperlink ref="A4" location="1" display="https://www.zenoti.com/fitness-center-management-software - 1" r:id="rId59"/>
-    <hyperlink ref="A5" location="1" display="https://www.zenoti.com/salon-management-software#1" r:id="rId60"/>
-    <hyperlink ref="A2" location="1" display="https://www.zenoti.com/spa-management-software - 1" r:id="rId57"/>
-    <hyperlink ref="A3" location="1" display="https://www.zenoti.com/medical-spa-software - 1" r:id="rId58"/>
-    <hyperlink ref="A4" location="1" display="https://www.zenoti.com/fitness-center-management-software - 1" r:id="rId59"/>
-    <hyperlink ref="A5" location="1" display="https://www.zenoti.com/salon-management-software#1" r:id="rId60"/>
-    <hyperlink ref="A2" location="1" display="https://www.zenoti.com/spa-management-software - 1" r:id="rId57"/>
-    <hyperlink ref="A3" location="1" display="https://www.zenoti.com/medical-spa-software - 1" r:id="rId58"/>
-    <hyperlink ref="A4" location="1" display="https://www.zenoti.com/fitness-center-management-software - 1" r:id="rId59"/>
-    <hyperlink ref="A5" location="1" display="https://www.zenoti.com/salon-management-software#1" r:id="rId60"/>
-    <hyperlink ref="A2" location="1" display="https://www.zenoti.com/spa-management-software - 1" r:id="rId57"/>
-    <hyperlink ref="A3" location="1" display="https://www.zenoti.com/medical-spa-software - 1" r:id="rId58"/>
-    <hyperlink ref="A4" location="1" display="https://www.zenoti.com/fitness-center-management-software - 1" r:id="rId59"/>
-    <hyperlink ref="A5" location="1" display="https://www.zenoti.com/salon-management-software#1" r:id="rId60"/>
-    <hyperlink ref="A2" location="1" display="https://www.zenoti.com/spa-management-software - 1" r:id="rId57"/>
-    <hyperlink ref="A3" location="1" display="https://www.zenoti.com/medical-spa-software - 1" r:id="rId58"/>
-    <hyperlink ref="A4" location="1" display="https://www.zenoti.com/fitness-center-management-software - 1" r:id="rId59"/>
-    <hyperlink ref="A5" location="1" display="https://www.zenoti.com/salon-management-software#1" r:id="rId60"/>
-    <hyperlink ref="A2" location="1" display="https://www.zenoti.com/spa-management-software - 1" r:id="rId57"/>
-    <hyperlink ref="A3" location="1" display="https://www.zenoti.com/medical-spa-software - 1" r:id="rId58"/>
-    <hyperlink ref="A4" location="1" display="https://www.zenoti.com/fitness-center-management-software - 1" r:id="rId59"/>
-    <hyperlink ref="A5" location="1" display="https://www.zenoti.com/salon-management-software#1" r:id="rId60"/>
-    <hyperlink ref="A2" location="1" display="https://www.zenoti.com/spa-management-software - 1" r:id="rId57"/>
-    <hyperlink ref="A3" location="1" display="https://www.zenoti.com/medical-spa-software - 1" r:id="rId58"/>
-    <hyperlink ref="A4" location="1" display="https://www.zenoti.com/fitness-center-management-software - 1" r:id="rId59"/>
-    <hyperlink ref="A5" location="1" display="https://www.zenoti.com/salon-management-software#1" r:id="rId60"/>
-    <hyperlink ref="A2" location="1" display="https://www.zenoti.com/spa-management-software - 1" r:id="rId57"/>
-    <hyperlink ref="A3" location="1" display="https://www.zenoti.com/medical-spa-software - 1" r:id="rId58"/>
-    <hyperlink ref="A4" location="1" display="https://www.zenoti.com/fitness-center-management-software - 1" r:id="rId59"/>
-    <hyperlink ref="A5" location="1" display="https://www.zenoti.com/salon-management-software#1" r:id="rId60"/>
-    <hyperlink ref="A2" location="1" display="https://www.zenoti.com/spa-management-software - 1" r:id="rId57"/>
-    <hyperlink ref="A3" location="1" display="https://www.zenoti.com/medical-spa-software - 1" r:id="rId58"/>
-    <hyperlink ref="A4" location="1" display="https://www.zenoti.com/fitness-center-management-software - 1" r:id="rId59"/>
-    <hyperlink ref="A5" location="1" display="https://www.zenoti.com/salon-management-software#1" r:id="rId60"/>
-    <hyperlink ref="A2" location="1" display="https://www.zenoti.com/spa-management-software - 1" r:id="rId57"/>
-    <hyperlink ref="A3" location="1" display="https://www.zenoti.com/medical-spa-software - 1" r:id="rId58"/>
-    <hyperlink ref="A4" location="1" display="https://www.zenoti.com/fitness-center-management-software - 1" r:id="rId59"/>
-    <hyperlink ref="A5" location="1" display="https://www.zenoti.com/salon-management-software#1" r:id="rId60"/>
-    <hyperlink ref="A2" location="1" display="https://www.zenoti.com/spa-management-software - 1" r:id="rId57"/>
-    <hyperlink ref="A3" location="1" display="https://www.zenoti.com/medical-spa-software - 1" r:id="rId58"/>
-    <hyperlink ref="A4" location="1" display="https://www.zenoti.com/fitness-center-management-software - 1" r:id="rId59"/>
-    <hyperlink ref="A5" location="1" display="https://www.zenoti.com/salon-management-software#1" r:id="rId60"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
@@ -1986,8 +1976,8 @@
     <col width="21.42578125" bestFit="1" customWidth="1" style="6" min="8" max="8"/>
     <col width="9.7109375" bestFit="1" customWidth="1" style="6" min="9" max="9"/>
     <col width="9.140625" bestFit="1" customWidth="1" style="6" min="10" max="10"/>
-    <col width="9.140625" customWidth="1" style="6" min="11" max="11"/>
-    <col width="9.140625" customWidth="1" style="6" min="12" max="16384"/>
+    <col width="9.140625" customWidth="1" style="6" min="11" max="13"/>
+    <col width="9.140625" customWidth="1" style="6" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -14501,666 +14491,1106 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId617"/>
-    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId618"/>
-    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId619"/>
-    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId620"/>
-    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId621"/>
-    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId622"/>
-    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId623"/>
-    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId624"/>
-    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId625"/>
-    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId626"/>
-    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId627"/>
-    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId628"/>
-    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId629"/>
-    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId630"/>
-    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId631"/>
-    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId632"/>
-    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId633"/>
-    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId634"/>
-    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId635"/>
-    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId636"/>
-    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId637"/>
-    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId638"/>
-    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId639"/>
-    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId640"/>
-    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId641"/>
-    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId642"/>
-    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId643"/>
-    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId644"/>
-    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId645"/>
-    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId646"/>
-    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId647"/>
-    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId648"/>
-    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId649"/>
-    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId650"/>
-    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId651"/>
-    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId652"/>
-    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId653"/>
-    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId654"/>
-    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId655"/>
-    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId656"/>
-    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId657"/>
-    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId658"/>
-    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId659"/>
-    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId660"/>
-    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId617"/>
-    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId618"/>
-    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId619"/>
-    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId620"/>
-    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId621"/>
-    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId622"/>
-    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId623"/>
-    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId624"/>
-    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId625"/>
-    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId626"/>
-    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId627"/>
-    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId628"/>
-    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId629"/>
-    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId630"/>
-    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId631"/>
-    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId632"/>
-    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId633"/>
-    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId634"/>
-    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId635"/>
-    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId636"/>
-    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId637"/>
-    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId638"/>
-    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId639"/>
-    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId640"/>
-    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId641"/>
-    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId642"/>
-    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId643"/>
-    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId644"/>
-    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId645"/>
-    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId646"/>
-    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId647"/>
-    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId648"/>
-    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId649"/>
-    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId650"/>
-    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId651"/>
-    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId652"/>
-    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId653"/>
-    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId654"/>
-    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId655"/>
-    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId656"/>
-    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId657"/>
-    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId658"/>
-    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId659"/>
-    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId660"/>
-    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId617"/>
-    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId618"/>
-    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId619"/>
-    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId620"/>
-    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId621"/>
-    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId622"/>
-    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId623"/>
-    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId624"/>
-    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId625"/>
-    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId626"/>
-    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId627"/>
-    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId628"/>
-    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId629"/>
-    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId630"/>
-    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId631"/>
-    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId632"/>
-    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId633"/>
-    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId634"/>
-    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId635"/>
-    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId636"/>
-    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId637"/>
-    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId638"/>
-    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId639"/>
-    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId640"/>
-    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId641"/>
-    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId642"/>
-    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId643"/>
-    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId644"/>
-    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId645"/>
-    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId646"/>
-    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId647"/>
-    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId648"/>
-    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId649"/>
-    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId650"/>
-    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId651"/>
-    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId652"/>
-    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId653"/>
-    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId654"/>
-    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId655"/>
-    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId656"/>
-    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId657"/>
-    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId658"/>
-    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId659"/>
-    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId660"/>
-    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId617"/>
-    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId618"/>
-    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId619"/>
-    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId620"/>
-    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId621"/>
-    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId622"/>
-    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId623"/>
-    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId624"/>
-    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId625"/>
-    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId626"/>
-    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId627"/>
-    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId628"/>
-    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId629"/>
-    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId630"/>
-    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId631"/>
-    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId632"/>
-    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId633"/>
-    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId634"/>
-    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId635"/>
-    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId636"/>
-    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId637"/>
-    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId638"/>
-    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId639"/>
-    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId640"/>
-    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId641"/>
-    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId642"/>
-    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId643"/>
-    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId644"/>
-    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId645"/>
-    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId646"/>
-    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId647"/>
-    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId648"/>
-    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId649"/>
-    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId650"/>
-    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId651"/>
-    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId652"/>
-    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId653"/>
-    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId654"/>
-    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId655"/>
-    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId656"/>
-    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId657"/>
-    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId658"/>
-    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId659"/>
-    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId660"/>
-    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId617"/>
-    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId618"/>
-    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId619"/>
-    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId620"/>
-    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId621"/>
-    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId622"/>
-    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId623"/>
-    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId624"/>
-    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId625"/>
-    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId626"/>
-    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId627"/>
-    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId628"/>
-    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId629"/>
-    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId630"/>
-    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId631"/>
-    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId632"/>
-    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId633"/>
-    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId634"/>
-    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId635"/>
-    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId636"/>
-    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId637"/>
-    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId638"/>
-    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId639"/>
-    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId640"/>
-    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId641"/>
-    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId642"/>
-    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId643"/>
-    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId644"/>
-    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId645"/>
-    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId646"/>
-    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId647"/>
-    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId648"/>
-    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId649"/>
-    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId650"/>
-    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId651"/>
-    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId652"/>
-    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId653"/>
-    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId654"/>
-    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId655"/>
-    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId656"/>
-    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId657"/>
-    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId658"/>
-    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId659"/>
-    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId660"/>
-    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId617"/>
-    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId618"/>
-    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId619"/>
-    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId620"/>
-    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId621"/>
-    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId622"/>
-    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId623"/>
-    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId624"/>
-    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId625"/>
-    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId626"/>
-    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId627"/>
-    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId628"/>
-    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId629"/>
-    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId630"/>
-    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId631"/>
-    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId632"/>
-    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId633"/>
-    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId634"/>
-    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId635"/>
-    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId636"/>
-    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId637"/>
-    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId638"/>
-    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId639"/>
-    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId640"/>
-    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId641"/>
-    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId642"/>
-    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId643"/>
-    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId644"/>
-    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId645"/>
-    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId646"/>
-    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId647"/>
-    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId648"/>
-    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId649"/>
-    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId650"/>
-    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId651"/>
-    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId652"/>
-    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId653"/>
-    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId654"/>
-    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId655"/>
-    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId656"/>
-    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId657"/>
-    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId658"/>
-    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId659"/>
-    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId660"/>
-    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId617"/>
-    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId618"/>
-    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId619"/>
-    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId620"/>
-    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId621"/>
-    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId622"/>
-    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId623"/>
-    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId624"/>
-    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId625"/>
-    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId626"/>
-    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId627"/>
-    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId628"/>
-    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId629"/>
-    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId630"/>
-    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId631"/>
-    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId632"/>
-    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId633"/>
-    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId634"/>
-    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId635"/>
-    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId636"/>
-    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId637"/>
-    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId638"/>
-    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId639"/>
-    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId640"/>
-    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId641"/>
-    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId642"/>
-    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId643"/>
-    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId644"/>
-    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId645"/>
-    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId646"/>
-    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId647"/>
-    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId648"/>
-    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId649"/>
-    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId650"/>
-    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId651"/>
-    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId652"/>
-    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId653"/>
-    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId654"/>
-    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId655"/>
-    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId656"/>
-    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId657"/>
-    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId658"/>
-    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId659"/>
-    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId660"/>
-    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId617"/>
-    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId618"/>
-    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId619"/>
-    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId620"/>
-    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId621"/>
-    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId622"/>
-    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId623"/>
-    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId624"/>
-    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId625"/>
-    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId626"/>
-    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId627"/>
-    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId628"/>
-    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId629"/>
-    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId630"/>
-    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId631"/>
-    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId632"/>
-    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId633"/>
-    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId634"/>
-    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId635"/>
-    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId636"/>
-    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId637"/>
-    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId638"/>
-    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId639"/>
-    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId640"/>
-    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId641"/>
-    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId642"/>
-    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId643"/>
-    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId644"/>
-    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId645"/>
-    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId646"/>
-    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId647"/>
-    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId648"/>
-    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId649"/>
-    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId650"/>
-    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId651"/>
-    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId652"/>
-    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId653"/>
-    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId654"/>
-    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId655"/>
-    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId656"/>
-    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId657"/>
-    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId658"/>
-    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId659"/>
-    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId660"/>
-    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId617"/>
-    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId618"/>
-    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId619"/>
-    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId620"/>
-    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId621"/>
-    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId622"/>
-    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId623"/>
-    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId624"/>
-    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId625"/>
-    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId626"/>
-    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId627"/>
-    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId628"/>
-    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId629"/>
-    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId630"/>
-    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId631"/>
-    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId632"/>
-    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId633"/>
-    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId634"/>
-    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId635"/>
-    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId636"/>
-    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId637"/>
-    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId638"/>
-    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId639"/>
-    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId640"/>
-    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId641"/>
-    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId642"/>
-    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId643"/>
-    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId644"/>
-    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId645"/>
-    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId646"/>
-    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId647"/>
-    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId648"/>
-    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId649"/>
-    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId650"/>
-    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId651"/>
-    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId652"/>
-    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId653"/>
-    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId654"/>
-    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId655"/>
-    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId656"/>
-    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId657"/>
-    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId658"/>
-    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId659"/>
-    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId660"/>
-    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId617"/>
-    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId618"/>
-    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId619"/>
-    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId620"/>
-    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId621"/>
-    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId622"/>
-    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId623"/>
-    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId624"/>
-    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId625"/>
-    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId626"/>
-    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId627"/>
-    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId628"/>
-    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId629"/>
-    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId630"/>
-    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId631"/>
-    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId632"/>
-    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId633"/>
-    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId634"/>
-    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId635"/>
-    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId636"/>
-    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId637"/>
-    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId638"/>
-    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId639"/>
-    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId640"/>
-    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId641"/>
-    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId642"/>
-    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId643"/>
-    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId644"/>
-    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId645"/>
-    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId646"/>
-    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId647"/>
-    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId648"/>
-    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId649"/>
-    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId650"/>
-    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId651"/>
-    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId652"/>
-    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId653"/>
-    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId654"/>
-    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId655"/>
-    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId656"/>
-    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId657"/>
-    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId658"/>
-    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId659"/>
-    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId660"/>
-    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId617"/>
-    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId618"/>
-    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId619"/>
-    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId620"/>
-    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId621"/>
-    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId622"/>
-    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId623"/>
-    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId624"/>
-    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId625"/>
-    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId626"/>
-    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId627"/>
-    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId628"/>
-    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId629"/>
-    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId630"/>
-    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId631"/>
-    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId632"/>
-    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId633"/>
-    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId634"/>
-    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId635"/>
-    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId636"/>
-    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId637"/>
-    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId638"/>
-    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId639"/>
-    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId640"/>
-    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId641"/>
-    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId642"/>
-    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId643"/>
-    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId644"/>
-    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId645"/>
-    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId646"/>
-    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId647"/>
-    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId648"/>
-    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId649"/>
-    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId650"/>
-    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId651"/>
-    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId652"/>
-    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId653"/>
-    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId654"/>
-    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId655"/>
-    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId656"/>
-    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId657"/>
-    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId658"/>
-    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId659"/>
-    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId660"/>
-    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId617"/>
-    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId618"/>
-    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId619"/>
-    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId620"/>
-    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId621"/>
-    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId622"/>
-    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId623"/>
-    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId624"/>
-    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId625"/>
-    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId626"/>
-    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId627"/>
-    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId628"/>
-    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId629"/>
-    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId630"/>
-    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId631"/>
-    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId632"/>
-    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId633"/>
-    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId634"/>
-    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId635"/>
-    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId636"/>
-    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId637"/>
-    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId638"/>
-    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId639"/>
-    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId640"/>
-    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId641"/>
-    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId642"/>
-    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId643"/>
-    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId644"/>
-    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId645"/>
-    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId646"/>
-    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId647"/>
-    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId648"/>
-    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId649"/>
-    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId650"/>
-    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId651"/>
-    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId652"/>
-    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId653"/>
-    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId654"/>
-    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId655"/>
-    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId656"/>
-    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId657"/>
-    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId658"/>
-    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId659"/>
-    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId660"/>
-    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId617"/>
-    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId618"/>
-    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId619"/>
-    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId620"/>
-    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId621"/>
-    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId622"/>
-    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId623"/>
-    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId624"/>
-    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId625"/>
-    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId626"/>
-    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId627"/>
-    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId628"/>
-    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId629"/>
-    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId630"/>
-    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId631"/>
-    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId632"/>
-    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId633"/>
-    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId634"/>
-    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId635"/>
-    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId636"/>
-    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId637"/>
-    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId638"/>
-    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId639"/>
-    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId640"/>
-    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId641"/>
-    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId642"/>
-    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId643"/>
-    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId644"/>
-    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId645"/>
-    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId646"/>
-    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId647"/>
-    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId648"/>
-    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId649"/>
-    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId650"/>
-    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId651"/>
-    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId652"/>
-    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId653"/>
-    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId654"/>
-    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId655"/>
-    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId656"/>
-    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId657"/>
-    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId658"/>
-    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId659"/>
-    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId660"/>
-    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId617"/>
-    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId618"/>
-    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId619"/>
-    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId620"/>
-    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId621"/>
-    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId622"/>
-    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId623"/>
-    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId624"/>
-    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId625"/>
-    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId626"/>
-    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId627"/>
-    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId628"/>
-    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId629"/>
-    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId630"/>
-    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId631"/>
-    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId632"/>
-    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId633"/>
-    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId634"/>
-    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId635"/>
-    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId636"/>
-    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId637"/>
-    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId638"/>
-    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId639"/>
-    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId640"/>
-    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId641"/>
-    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId642"/>
-    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId643"/>
-    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId644"/>
-    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId645"/>
-    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId646"/>
-    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId647"/>
-    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId648"/>
-    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId649"/>
-    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId650"/>
-    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId651"/>
-    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId652"/>
-    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId653"/>
-    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId654"/>
-    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId655"/>
-    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId656"/>
-    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId657"/>
-    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId658"/>
-    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId659"/>
-    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId660"/>
-    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId617"/>
-    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId618"/>
-    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId619"/>
-    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId620"/>
-    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId621"/>
-    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId622"/>
-    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId623"/>
-    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId624"/>
-    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId625"/>
-    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId626"/>
-    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId627"/>
-    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId628"/>
-    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId629"/>
-    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId630"/>
-    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId631"/>
-    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId632"/>
-    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId633"/>
-    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId634"/>
-    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId635"/>
-    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId636"/>
-    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId637"/>
-    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId638"/>
-    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId639"/>
-    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId640"/>
-    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId641"/>
-    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId642"/>
-    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId643"/>
-    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId644"/>
-    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId645"/>
-    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId646"/>
-    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId647"/>
-    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId648"/>
-    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId649"/>
-    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId650"/>
-    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId651"/>
-    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId652"/>
-    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId653"/>
-    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId654"/>
-    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId655"/>
-    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId656"/>
-    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId657"/>
-    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId658"/>
-    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId659"/>
-    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId660"/>
+    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId1057"/>
+    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId1058"/>
+    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId1059"/>
+    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId1060"/>
+    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId1061"/>
+    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId1062"/>
+    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId1063"/>
+    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId1064"/>
+    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId1065"/>
+    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId1066"/>
+    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId1067"/>
+    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId1068"/>
+    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId1069"/>
+    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId1070"/>
+    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId1071"/>
+    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId1072"/>
+    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId1073"/>
+    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId1074"/>
+    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId1075"/>
+    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId1076"/>
+    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId1077"/>
+    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId1078"/>
+    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId1079"/>
+    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId1080"/>
+    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId1081"/>
+    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId1082"/>
+    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId1083"/>
+    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId1084"/>
+    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId1085"/>
+    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId1086"/>
+    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId1087"/>
+    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId1088"/>
+    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId1089"/>
+    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId1090"/>
+    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId1091"/>
+    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId1092"/>
+    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId1093"/>
+    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId1094"/>
+    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId1095"/>
+    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId1096"/>
+    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId1097"/>
+    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId1098"/>
+    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId1099"/>
+    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId1100"/>
+    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId1057"/>
+    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId1058"/>
+    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId1059"/>
+    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId1060"/>
+    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId1061"/>
+    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId1062"/>
+    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId1063"/>
+    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId1064"/>
+    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId1065"/>
+    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId1066"/>
+    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId1067"/>
+    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId1068"/>
+    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId1069"/>
+    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId1070"/>
+    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId1071"/>
+    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId1072"/>
+    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId1073"/>
+    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId1074"/>
+    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId1075"/>
+    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId1076"/>
+    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId1077"/>
+    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId1078"/>
+    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId1079"/>
+    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId1080"/>
+    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId1081"/>
+    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId1082"/>
+    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId1083"/>
+    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId1084"/>
+    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId1085"/>
+    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId1086"/>
+    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId1087"/>
+    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId1088"/>
+    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId1089"/>
+    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId1090"/>
+    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId1091"/>
+    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId1092"/>
+    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId1093"/>
+    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId1094"/>
+    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId1095"/>
+    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId1096"/>
+    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId1097"/>
+    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId1098"/>
+    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId1099"/>
+    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId1100"/>
+    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId1057"/>
+    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId1058"/>
+    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId1059"/>
+    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId1060"/>
+    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId1061"/>
+    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId1062"/>
+    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId1063"/>
+    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId1064"/>
+    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId1065"/>
+    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId1066"/>
+    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId1067"/>
+    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId1068"/>
+    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId1069"/>
+    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId1070"/>
+    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId1071"/>
+    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId1072"/>
+    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId1073"/>
+    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId1074"/>
+    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId1075"/>
+    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId1076"/>
+    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId1077"/>
+    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId1078"/>
+    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId1079"/>
+    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId1080"/>
+    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId1081"/>
+    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId1082"/>
+    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId1083"/>
+    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId1084"/>
+    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId1085"/>
+    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId1086"/>
+    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId1087"/>
+    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId1088"/>
+    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId1089"/>
+    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId1090"/>
+    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId1091"/>
+    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId1092"/>
+    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId1093"/>
+    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId1094"/>
+    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId1095"/>
+    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId1096"/>
+    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId1097"/>
+    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId1098"/>
+    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId1099"/>
+    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId1100"/>
+    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId1057"/>
+    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId1058"/>
+    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId1059"/>
+    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId1060"/>
+    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId1061"/>
+    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId1062"/>
+    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId1063"/>
+    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId1064"/>
+    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId1065"/>
+    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId1066"/>
+    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId1067"/>
+    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId1068"/>
+    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId1069"/>
+    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId1070"/>
+    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId1071"/>
+    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId1072"/>
+    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId1073"/>
+    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId1074"/>
+    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId1075"/>
+    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId1076"/>
+    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId1077"/>
+    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId1078"/>
+    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId1079"/>
+    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId1080"/>
+    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId1081"/>
+    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId1082"/>
+    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId1083"/>
+    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId1084"/>
+    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId1085"/>
+    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId1086"/>
+    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId1087"/>
+    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId1088"/>
+    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId1089"/>
+    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId1090"/>
+    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId1091"/>
+    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId1092"/>
+    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId1093"/>
+    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId1094"/>
+    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId1095"/>
+    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId1096"/>
+    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId1097"/>
+    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId1098"/>
+    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId1099"/>
+    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId1100"/>
+    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId1057"/>
+    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId1058"/>
+    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId1059"/>
+    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId1060"/>
+    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId1061"/>
+    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId1062"/>
+    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId1063"/>
+    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId1064"/>
+    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId1065"/>
+    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId1066"/>
+    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId1067"/>
+    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId1068"/>
+    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId1069"/>
+    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId1070"/>
+    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId1071"/>
+    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId1072"/>
+    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId1073"/>
+    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId1074"/>
+    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId1075"/>
+    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId1076"/>
+    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId1077"/>
+    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId1078"/>
+    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId1079"/>
+    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId1080"/>
+    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId1081"/>
+    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId1082"/>
+    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId1083"/>
+    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId1084"/>
+    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId1085"/>
+    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId1086"/>
+    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId1087"/>
+    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId1088"/>
+    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId1089"/>
+    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId1090"/>
+    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId1091"/>
+    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId1092"/>
+    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId1093"/>
+    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId1094"/>
+    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId1095"/>
+    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId1096"/>
+    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId1097"/>
+    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId1098"/>
+    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId1099"/>
+    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId1100"/>
+    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId1057"/>
+    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId1058"/>
+    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId1059"/>
+    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId1060"/>
+    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId1061"/>
+    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId1062"/>
+    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId1063"/>
+    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId1064"/>
+    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId1065"/>
+    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId1066"/>
+    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId1067"/>
+    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId1068"/>
+    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId1069"/>
+    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId1070"/>
+    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId1071"/>
+    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId1072"/>
+    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId1073"/>
+    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId1074"/>
+    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId1075"/>
+    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId1076"/>
+    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId1077"/>
+    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId1078"/>
+    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId1079"/>
+    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId1080"/>
+    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId1081"/>
+    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId1082"/>
+    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId1083"/>
+    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId1084"/>
+    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId1085"/>
+    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId1086"/>
+    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId1087"/>
+    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId1088"/>
+    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId1089"/>
+    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId1090"/>
+    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId1091"/>
+    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId1092"/>
+    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId1093"/>
+    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId1094"/>
+    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId1095"/>
+    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId1096"/>
+    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId1097"/>
+    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId1098"/>
+    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId1099"/>
+    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId1100"/>
+    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId1057"/>
+    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId1058"/>
+    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId1059"/>
+    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId1060"/>
+    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId1061"/>
+    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId1062"/>
+    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId1063"/>
+    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId1064"/>
+    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId1065"/>
+    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId1066"/>
+    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId1067"/>
+    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId1068"/>
+    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId1069"/>
+    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId1070"/>
+    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId1071"/>
+    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId1072"/>
+    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId1073"/>
+    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId1074"/>
+    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId1075"/>
+    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId1076"/>
+    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId1077"/>
+    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId1078"/>
+    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId1079"/>
+    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId1080"/>
+    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId1081"/>
+    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId1082"/>
+    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId1083"/>
+    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId1084"/>
+    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId1085"/>
+    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId1086"/>
+    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId1087"/>
+    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId1088"/>
+    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId1089"/>
+    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId1090"/>
+    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId1091"/>
+    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId1092"/>
+    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId1093"/>
+    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId1094"/>
+    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId1095"/>
+    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId1096"/>
+    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId1097"/>
+    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId1098"/>
+    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId1099"/>
+    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId1100"/>
+    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId1057"/>
+    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId1058"/>
+    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId1059"/>
+    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId1060"/>
+    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId1061"/>
+    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId1062"/>
+    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId1063"/>
+    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId1064"/>
+    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId1065"/>
+    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId1066"/>
+    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId1067"/>
+    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId1068"/>
+    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId1069"/>
+    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId1070"/>
+    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId1071"/>
+    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId1072"/>
+    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId1073"/>
+    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId1074"/>
+    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId1075"/>
+    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId1076"/>
+    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId1077"/>
+    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId1078"/>
+    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId1079"/>
+    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId1080"/>
+    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId1081"/>
+    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId1082"/>
+    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId1083"/>
+    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId1084"/>
+    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId1085"/>
+    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId1086"/>
+    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId1087"/>
+    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId1088"/>
+    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId1089"/>
+    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId1090"/>
+    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId1091"/>
+    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId1092"/>
+    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId1093"/>
+    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId1094"/>
+    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId1095"/>
+    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId1096"/>
+    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId1097"/>
+    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId1098"/>
+    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId1099"/>
+    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId1100"/>
+    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId1057"/>
+    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId1058"/>
+    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId1059"/>
+    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId1060"/>
+    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId1061"/>
+    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId1062"/>
+    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId1063"/>
+    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId1064"/>
+    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId1065"/>
+    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId1066"/>
+    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId1067"/>
+    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId1068"/>
+    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId1069"/>
+    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId1070"/>
+    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId1071"/>
+    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId1072"/>
+    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId1073"/>
+    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId1074"/>
+    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId1075"/>
+    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId1076"/>
+    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId1077"/>
+    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId1078"/>
+    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId1079"/>
+    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId1080"/>
+    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId1081"/>
+    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId1082"/>
+    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId1083"/>
+    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId1084"/>
+    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId1085"/>
+    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId1086"/>
+    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId1087"/>
+    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId1088"/>
+    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId1089"/>
+    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId1090"/>
+    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId1091"/>
+    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId1092"/>
+    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId1093"/>
+    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId1094"/>
+    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId1095"/>
+    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId1096"/>
+    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId1097"/>
+    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId1098"/>
+    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId1099"/>
+    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId1100"/>
+    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId1057"/>
+    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId1058"/>
+    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId1059"/>
+    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId1060"/>
+    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId1061"/>
+    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId1062"/>
+    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId1063"/>
+    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId1064"/>
+    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId1065"/>
+    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId1066"/>
+    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId1067"/>
+    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId1068"/>
+    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId1069"/>
+    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId1070"/>
+    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId1071"/>
+    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId1072"/>
+    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId1073"/>
+    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId1074"/>
+    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId1075"/>
+    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId1076"/>
+    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId1077"/>
+    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId1078"/>
+    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId1079"/>
+    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId1080"/>
+    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId1081"/>
+    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId1082"/>
+    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId1083"/>
+    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId1084"/>
+    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId1085"/>
+    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId1086"/>
+    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId1087"/>
+    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId1088"/>
+    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId1089"/>
+    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId1090"/>
+    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId1091"/>
+    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId1092"/>
+    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId1093"/>
+    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId1094"/>
+    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId1095"/>
+    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId1096"/>
+    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId1097"/>
+    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId1098"/>
+    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId1099"/>
+    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId1100"/>
+    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId1057"/>
+    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId1058"/>
+    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId1059"/>
+    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId1060"/>
+    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId1061"/>
+    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId1062"/>
+    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId1063"/>
+    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId1064"/>
+    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId1065"/>
+    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId1066"/>
+    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId1067"/>
+    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId1068"/>
+    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId1069"/>
+    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId1070"/>
+    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId1071"/>
+    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId1072"/>
+    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId1073"/>
+    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId1074"/>
+    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId1075"/>
+    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId1076"/>
+    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId1077"/>
+    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId1078"/>
+    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId1079"/>
+    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId1080"/>
+    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId1081"/>
+    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId1082"/>
+    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId1083"/>
+    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId1084"/>
+    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId1085"/>
+    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId1086"/>
+    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId1087"/>
+    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId1088"/>
+    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId1089"/>
+    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId1090"/>
+    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId1091"/>
+    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId1092"/>
+    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId1093"/>
+    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId1094"/>
+    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId1095"/>
+    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId1096"/>
+    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId1097"/>
+    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId1098"/>
+    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId1099"/>
+    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId1100"/>
+    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId1057"/>
+    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId1058"/>
+    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId1059"/>
+    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId1060"/>
+    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId1061"/>
+    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId1062"/>
+    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId1063"/>
+    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId1064"/>
+    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId1065"/>
+    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId1066"/>
+    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId1067"/>
+    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId1068"/>
+    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId1069"/>
+    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId1070"/>
+    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId1071"/>
+    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId1072"/>
+    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId1073"/>
+    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId1074"/>
+    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId1075"/>
+    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId1076"/>
+    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId1077"/>
+    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId1078"/>
+    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId1079"/>
+    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId1080"/>
+    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId1081"/>
+    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId1082"/>
+    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId1083"/>
+    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId1084"/>
+    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId1085"/>
+    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId1086"/>
+    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId1087"/>
+    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId1088"/>
+    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId1089"/>
+    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId1090"/>
+    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId1091"/>
+    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId1092"/>
+    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId1093"/>
+    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId1094"/>
+    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId1095"/>
+    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId1096"/>
+    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId1097"/>
+    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId1098"/>
+    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId1099"/>
+    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId1100"/>
+    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId1057"/>
+    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId1058"/>
+    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId1059"/>
+    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId1060"/>
+    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId1061"/>
+    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId1062"/>
+    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId1063"/>
+    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId1064"/>
+    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId1065"/>
+    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId1066"/>
+    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId1067"/>
+    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId1068"/>
+    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId1069"/>
+    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId1070"/>
+    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId1071"/>
+    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId1072"/>
+    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId1073"/>
+    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId1074"/>
+    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId1075"/>
+    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId1076"/>
+    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId1077"/>
+    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId1078"/>
+    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId1079"/>
+    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId1080"/>
+    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId1081"/>
+    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId1082"/>
+    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId1083"/>
+    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId1084"/>
+    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId1085"/>
+    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId1086"/>
+    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId1087"/>
+    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId1088"/>
+    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId1089"/>
+    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId1090"/>
+    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId1091"/>
+    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId1092"/>
+    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId1093"/>
+    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId1094"/>
+    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId1095"/>
+    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId1096"/>
+    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId1097"/>
+    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId1098"/>
+    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId1099"/>
+    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId1100"/>
+    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId1057"/>
+    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId1058"/>
+    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId1059"/>
+    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId1060"/>
+    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId1061"/>
+    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId1062"/>
+    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId1063"/>
+    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId1064"/>
+    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId1065"/>
+    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId1066"/>
+    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId1067"/>
+    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId1068"/>
+    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId1069"/>
+    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId1070"/>
+    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId1071"/>
+    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId1072"/>
+    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId1073"/>
+    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId1074"/>
+    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId1075"/>
+    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId1076"/>
+    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId1077"/>
+    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId1078"/>
+    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId1079"/>
+    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId1080"/>
+    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId1081"/>
+    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId1082"/>
+    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId1083"/>
+    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId1084"/>
+    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId1085"/>
+    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId1086"/>
+    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId1087"/>
+    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId1088"/>
+    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId1089"/>
+    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId1090"/>
+    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId1091"/>
+    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId1092"/>
+    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId1093"/>
+    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId1094"/>
+    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId1095"/>
+    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId1096"/>
+    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId1097"/>
+    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId1098"/>
+    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId1099"/>
+    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId1100"/>
+    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId1057"/>
+    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId1058"/>
+    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId1059"/>
+    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId1060"/>
+    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId1061"/>
+    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId1062"/>
+    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId1063"/>
+    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId1064"/>
+    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId1065"/>
+    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId1066"/>
+    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId1067"/>
+    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId1068"/>
+    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId1069"/>
+    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId1070"/>
+    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId1071"/>
+    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId1072"/>
+    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId1073"/>
+    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId1074"/>
+    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId1075"/>
+    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId1076"/>
+    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId1077"/>
+    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId1078"/>
+    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId1079"/>
+    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId1080"/>
+    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId1081"/>
+    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId1082"/>
+    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId1083"/>
+    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId1084"/>
+    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId1085"/>
+    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId1086"/>
+    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId1087"/>
+    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId1088"/>
+    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId1089"/>
+    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId1090"/>
+    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId1091"/>
+    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId1092"/>
+    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId1093"/>
+    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId1094"/>
+    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId1095"/>
+    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId1096"/>
+    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId1097"/>
+    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId1098"/>
+    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId1099"/>
+    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId1100"/>
+    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId1057"/>
+    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId1058"/>
+    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId1059"/>
+    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId1060"/>
+    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId1061"/>
+    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId1062"/>
+    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId1063"/>
+    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId1064"/>
+    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId1065"/>
+    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId1066"/>
+    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId1067"/>
+    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId1068"/>
+    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId1069"/>
+    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId1070"/>
+    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId1071"/>
+    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId1072"/>
+    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId1073"/>
+    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId1074"/>
+    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId1075"/>
+    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId1076"/>
+    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId1077"/>
+    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId1078"/>
+    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId1079"/>
+    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId1080"/>
+    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId1081"/>
+    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId1082"/>
+    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId1083"/>
+    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId1084"/>
+    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId1085"/>
+    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId1086"/>
+    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId1087"/>
+    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId1088"/>
+    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId1089"/>
+    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId1090"/>
+    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId1091"/>
+    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId1092"/>
+    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId1093"/>
+    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId1094"/>
+    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId1095"/>
+    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId1096"/>
+    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId1097"/>
+    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId1098"/>
+    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId1099"/>
+    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId1100"/>
+    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId1057"/>
+    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId1058"/>
+    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId1059"/>
+    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId1060"/>
+    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId1061"/>
+    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId1062"/>
+    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId1063"/>
+    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId1064"/>
+    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId1065"/>
+    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId1066"/>
+    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId1067"/>
+    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId1068"/>
+    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId1069"/>
+    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId1070"/>
+    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId1071"/>
+    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId1072"/>
+    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId1073"/>
+    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId1074"/>
+    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId1075"/>
+    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId1076"/>
+    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId1077"/>
+    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId1078"/>
+    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId1079"/>
+    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId1080"/>
+    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId1081"/>
+    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId1082"/>
+    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId1083"/>
+    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId1084"/>
+    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId1085"/>
+    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId1086"/>
+    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId1087"/>
+    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId1088"/>
+    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId1089"/>
+    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId1090"/>
+    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId1091"/>
+    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId1092"/>
+    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId1093"/>
+    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId1094"/>
+    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId1095"/>
+    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId1096"/>
+    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId1097"/>
+    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId1098"/>
+    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId1099"/>
+    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId1100"/>
+    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId1057"/>
+    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId1058"/>
+    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId1059"/>
+    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId1060"/>
+    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId1061"/>
+    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId1062"/>
+    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId1063"/>
+    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId1064"/>
+    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId1065"/>
+    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId1066"/>
+    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId1067"/>
+    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId1068"/>
+    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId1069"/>
+    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId1070"/>
+    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId1071"/>
+    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId1072"/>
+    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId1073"/>
+    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId1074"/>
+    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId1075"/>
+    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId1076"/>
+    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId1077"/>
+    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId1078"/>
+    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId1079"/>
+    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId1080"/>
+    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId1081"/>
+    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId1082"/>
+    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId1083"/>
+    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId1084"/>
+    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId1085"/>
+    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId1086"/>
+    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId1087"/>
+    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId1088"/>
+    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId1089"/>
+    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId1090"/>
+    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId1091"/>
+    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId1092"/>
+    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId1093"/>
+    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId1094"/>
+    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId1095"/>
+    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId1096"/>
+    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId1097"/>
+    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId1098"/>
+    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId1099"/>
+    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId1100"/>
+    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId1057"/>
+    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId1058"/>
+    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId1059"/>
+    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId1060"/>
+    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId1061"/>
+    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId1062"/>
+    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId1063"/>
+    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId1064"/>
+    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId1065"/>
+    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId1066"/>
+    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId1067"/>
+    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId1068"/>
+    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId1069"/>
+    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId1070"/>
+    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId1071"/>
+    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId1072"/>
+    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId1073"/>
+    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId1074"/>
+    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId1075"/>
+    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId1076"/>
+    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId1077"/>
+    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId1078"/>
+    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId1079"/>
+    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId1080"/>
+    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId1081"/>
+    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId1082"/>
+    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId1083"/>
+    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId1084"/>
+    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId1085"/>
+    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId1086"/>
+    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId1087"/>
+    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId1088"/>
+    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId1089"/>
+    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId1090"/>
+    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId1091"/>
+    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId1092"/>
+    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId1093"/>
+    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId1094"/>
+    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId1095"/>
+    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId1096"/>
+    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId1097"/>
+    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId1098"/>
+    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId1099"/>
+    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId1100"/>
+    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId1057"/>
+    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId1058"/>
+    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId1059"/>
+    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId1060"/>
+    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId1061"/>
+    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId1062"/>
+    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId1063"/>
+    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId1064"/>
+    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId1065"/>
+    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId1066"/>
+    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId1067"/>
+    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId1068"/>
+    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId1069"/>
+    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId1070"/>
+    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId1071"/>
+    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId1072"/>
+    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId1073"/>
+    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId1074"/>
+    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId1075"/>
+    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId1076"/>
+    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId1077"/>
+    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId1078"/>
+    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId1079"/>
+    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId1080"/>
+    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId1081"/>
+    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId1082"/>
+    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId1083"/>
+    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId1084"/>
+    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId1085"/>
+    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId1086"/>
+    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId1087"/>
+    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId1088"/>
+    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId1089"/>
+    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId1090"/>
+    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId1091"/>
+    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId1092"/>
+    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId1093"/>
+    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId1094"/>
+    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId1095"/>
+    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId1096"/>
+    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId1097"/>
+    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId1098"/>
+    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId1099"/>
+    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId1100"/>
+    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId1057"/>
+    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId1058"/>
+    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId1059"/>
+    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId1060"/>
+    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId1061"/>
+    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId1062"/>
+    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId1063"/>
+    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId1064"/>
+    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId1065"/>
+    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId1066"/>
+    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId1067"/>
+    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId1068"/>
+    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId1069"/>
+    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId1070"/>
+    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId1071"/>
+    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId1072"/>
+    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId1073"/>
+    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId1074"/>
+    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId1075"/>
+    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId1076"/>
+    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId1077"/>
+    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId1078"/>
+    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId1079"/>
+    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId1080"/>
+    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId1081"/>
+    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId1082"/>
+    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId1083"/>
+    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId1084"/>
+    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId1085"/>
+    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId1086"/>
+    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId1087"/>
+    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId1088"/>
+    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId1089"/>
+    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId1090"/>
+    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId1091"/>
+    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId1092"/>
+    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId1093"/>
+    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId1094"/>
+    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId1095"/>
+    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId1096"/>
+    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId1097"/>
+    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId1098"/>
+    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId1099"/>
+    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId1100"/>
+    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId1057"/>
+    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId1058"/>
+    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId1059"/>
+    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId1060"/>
+    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId1061"/>
+    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId1062"/>
+    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId1063"/>
+    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId1064"/>
+    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId1065"/>
+    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId1066"/>
+    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId1067"/>
+    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId1068"/>
+    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId1069"/>
+    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId1070"/>
+    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId1071"/>
+    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId1072"/>
+    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId1073"/>
+    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId1074"/>
+    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId1075"/>
+    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId1076"/>
+    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId1077"/>
+    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId1078"/>
+    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId1079"/>
+    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId1080"/>
+    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId1081"/>
+    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId1082"/>
+    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId1083"/>
+    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId1084"/>
+    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId1085"/>
+    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId1086"/>
+    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId1087"/>
+    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId1088"/>
+    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId1089"/>
+    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId1090"/>
+    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId1091"/>
+    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId1092"/>
+    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId1093"/>
+    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId1094"/>
+    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId1095"/>
+    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId1096"/>
+    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId1097"/>
+    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId1098"/>
+    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId1099"/>
+    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId1100"/>
+    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId1057"/>
+    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId1058"/>
+    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId1059"/>
+    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId1060"/>
+    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId1061"/>
+    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId1062"/>
+    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId1063"/>
+    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId1064"/>
+    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId1065"/>
+    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId1066"/>
+    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId1067"/>
+    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId1068"/>
+    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId1069"/>
+    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId1070"/>
+    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId1071"/>
+    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId1072"/>
+    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId1073"/>
+    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId1074"/>
+    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId1075"/>
+    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId1076"/>
+    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId1077"/>
+    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId1078"/>
+    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId1079"/>
+    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId1080"/>
+    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId1081"/>
+    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId1082"/>
+    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId1083"/>
+    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId1084"/>
+    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId1085"/>
+    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId1086"/>
+    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId1087"/>
+    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId1088"/>
+    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId1089"/>
+    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId1090"/>
+    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId1091"/>
+    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId1092"/>
+    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId1093"/>
+    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId1094"/>
+    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId1095"/>
+    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId1096"/>
+    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId1097"/>
+    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId1098"/>
+    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId1099"/>
+    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId1100"/>
+    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId1057"/>
+    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId1058"/>
+    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId1059"/>
+    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId1060"/>
+    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId1061"/>
+    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId1062"/>
+    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId1063"/>
+    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId1064"/>
+    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId1065"/>
+    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId1066"/>
+    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId1067"/>
+    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId1068"/>
+    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId1069"/>
+    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId1070"/>
+    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId1071"/>
+    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId1072"/>
+    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId1073"/>
+    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId1074"/>
+    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId1075"/>
+    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId1076"/>
+    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId1077"/>
+    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId1078"/>
+    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId1079"/>
+    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId1080"/>
+    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId1081"/>
+    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId1082"/>
+    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId1083"/>
+    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId1084"/>
+    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId1085"/>
+    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId1086"/>
+    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId1087"/>
+    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId1088"/>
+    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId1089"/>
+    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId1090"/>
+    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId1091"/>
+    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId1092"/>
+    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId1093"/>
+    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId1094"/>
+    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId1095"/>
+    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId1096"/>
+    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId1097"/>
+    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId1098"/>
+    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId1099"/>
+    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId1100"/>
+    <hyperlink ref="A2" display="https://test.impact.science/" r:id="rId1057"/>
+    <hyperlink ref="A3" display="https://test.impact.science/universities-research-institutes/" r:id="rId1058"/>
+    <hyperlink ref="A4" display="https://test.impact.science/universities-research-institutes/simplify-complex-research.html" r:id="rId1059"/>
+    <hyperlink ref="A5" display="https://test.impact.science/universities-research-institutes/improve-research-reputation.html" r:id="rId1060"/>
+    <hyperlink ref="A6" display="https://test.impact.science/universities-research-institutes/communicate-research-excellence.html" r:id="rId1061"/>
+    <hyperlink ref="A7" display="https://test.impact.science/universities-research-institutes/encourage-industry-academia-collaboration.html" r:id="rId1062"/>
+    <hyperlink ref="A8" display="https://test.impact.science/universities-research-institutes/communicate-adherence-to-sdgs.html" r:id="rId1063"/>
+    <hyperlink ref="A9" display="https://test.impact.science/universities-research-institutes/empower-researchers-to-build-research-reputation.html" r:id="rId1064"/>
+    <hyperlink ref="A10" display="https://test.impact.science/universities-research-institutes/build-and-measure-impact.html" r:id="rId1065"/>
+    <hyperlink ref="A11" display="https://test.impact.science/medical-life-science-organizations/" r:id="rId1066"/>
+    <hyperlink ref="A12" display="https://test.impact.science/medical-life-science-organizations/personalize-scientific-content.html" r:id="rId1067"/>
+    <hyperlink ref="A13" display="https://test.impact.science/medical-life-science-organizations/repurpose-existing-content.html" r:id="rId1068"/>
+    <hyperlink ref="A14" display="https://test.impact.science/medical-life-science-organizations/disseminate-content-through-right-channels.html" r:id="rId1069"/>
+    <hyperlink ref="A15" display="https://test.impact.science/publisher-and-information-solution-companies/" r:id="rId1070"/>
+    <hyperlink ref="A16" display="https://test.impact.science/publisher-and-information-solution-companies/engage-researcher-communities.html" r:id="rId1071"/>
+    <hyperlink ref="A17" display="https://test.impact.science/publisher-and-information-solution-companies/showcase-your-portfolio.html" r:id="rId1072"/>
+    <hyperlink ref="A18" display="https://test.impact.science/publisher-and-information-solution-companies/expand-your-reach-to-global-and-local-markets.html" r:id="rId1073"/>
+    <hyperlink ref="A19" display="https://test.impact.science/academic-societies/" r:id="rId1074"/>
+    <hyperlink ref="A20" display="https://test.impact.science/academic-societies/bring-research-to-life.html" r:id="rId1075"/>
+    <hyperlink ref="A21" display="https://test.impact.science/academic-societies/foster-engaged-member-communities.html" r:id="rId1076"/>
+    <hyperlink ref="A22" display="https://test.impact.science/academic-societies/promote-your-society-and-discipline.html" r:id="rId1077"/>
+    <hyperlink ref="A23" display="https://test.impact.science/academic-societies/expand-global-reach.html" r:id="rId1078"/>
+    <hyperlink ref="A24" display="https://test.impact.science/academic-societies/build-revenue-and-impact.html" r:id="rId1079"/>
+    <hyperlink ref="A25" display="https://test.impact.science/academic-societies/champion-professional-development.html" r:id="rId1080"/>
+    <hyperlink ref="A26" display="https://test.impact.science/academic-societies/lead-conversations-with-kols-and-public.html" r:id="rId1081"/>
+    <hyperlink ref="A27" display="https://test.impact.science/case-studies/" r:id="rId1082"/>
+    <hyperlink ref="A28" display="https://test.impact.science/what-we-do/" r:id="rId1083"/>
+    <hyperlink ref="A29" display="https://test.impact.science/what-we-do/brand-outreach-strategy.html" r:id="rId1084"/>
+    <hyperlink ref="A30" display="https://test.impact.science/what-we-do/research-communication-strategy.html" r:id="rId1085"/>
+    <hyperlink ref="A31" display="https://test.impact.science/what-we-do/impact-communication-strategy.html" r:id="rId1086"/>
+    <hyperlink ref="A32" display="https://test.impact.science/what-we-do/patent-communication-strategy.html" r:id="rId1087"/>
+    <hyperlink ref="A33" display="https://test.impact.science/what-we-do/writing-solutions.html" r:id="rId1088"/>
+    <hyperlink ref="A34" display="https://test.impact.science/what-we-do/video-solutions.html" r:id="rId1089"/>
+    <hyperlink ref="A35" display="https://test.impact.science/what-we-do/graphical-solutions.html" r:id="rId1090"/>
+    <hyperlink ref="A36" display="https://test.impact.science/what-we-do/audio-solutions.html" r:id="rId1091"/>
+    <hyperlink ref="A37" display="https://test.impact.science/what-we-do/marketing-solutions.html" r:id="rId1092"/>
+    <hyperlink ref="A38" display="https://test.impact.science/about-us/" r:id="rId1093"/>
+    <hyperlink ref="A39" display="https://test.impact.science/about-us/meet-the-team.html" r:id="rId1094"/>
+    <hyperlink ref="A40" display="https://test.impact.science/contact-us.html" r:id="rId1095"/>
+    <hyperlink ref="A41" display="https://test.impact.science/case-studies/the-academy-of-management-insights.html" r:id="rId1096"/>
+    <hyperlink ref="A42" display="https://test.impact.science/case-studies/the-american-academy-of-neurology.html" r:id="rId1097"/>
+    <hyperlink ref="A43" display="https://test.impact.science/case-studies/brill.html" r:id="rId1098"/>
+    <hyperlink ref="A44" display="https://test.impact.science/case-studies/the-american-society-of-clinical-oncology.html" r:id="rId1099"/>
+    <hyperlink ref="A45" display="https://test.impact.science/privacy-policy.html" r:id="rId1100"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -17104,666 +17534,1106 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId617"/>
-    <hyperlink ref="A3" r:id="rId618"/>
-    <hyperlink ref="A4" r:id="rId619"/>
-    <hyperlink ref="A5" r:id="rId620"/>
-    <hyperlink ref="A6" r:id="rId621"/>
-    <hyperlink ref="A7" r:id="rId622"/>
-    <hyperlink ref="A8" r:id="rId623"/>
-    <hyperlink ref="A9" r:id="rId624"/>
-    <hyperlink ref="A10" r:id="rId625"/>
-    <hyperlink ref="A11" r:id="rId626"/>
-    <hyperlink ref="A12" r:id="rId627"/>
-    <hyperlink ref="A13" r:id="rId628"/>
-    <hyperlink ref="A14" r:id="rId629"/>
-    <hyperlink ref="A15" r:id="rId630"/>
-    <hyperlink ref="A16" r:id="rId631"/>
-    <hyperlink ref="A17" r:id="rId632"/>
-    <hyperlink ref="A18" r:id="rId633"/>
-    <hyperlink ref="A19" r:id="rId634"/>
-    <hyperlink ref="A20" r:id="rId635"/>
-    <hyperlink ref="A21" r:id="rId636"/>
-    <hyperlink ref="A22" r:id="rId637"/>
-    <hyperlink ref="A23" r:id="rId638"/>
-    <hyperlink ref="A24" r:id="rId639"/>
-    <hyperlink ref="A25" r:id="rId640"/>
-    <hyperlink ref="A26" r:id="rId641"/>
-    <hyperlink ref="A27" r:id="rId642"/>
-    <hyperlink ref="A28" r:id="rId643"/>
-    <hyperlink ref="A29" r:id="rId644"/>
-    <hyperlink ref="A30" r:id="rId645"/>
-    <hyperlink ref="A31" r:id="rId646"/>
-    <hyperlink ref="A32" r:id="rId647"/>
-    <hyperlink ref="A33" r:id="rId648"/>
-    <hyperlink ref="A34" r:id="rId649"/>
-    <hyperlink ref="A35" r:id="rId650"/>
-    <hyperlink ref="A36" r:id="rId651"/>
-    <hyperlink ref="A37" r:id="rId652"/>
-    <hyperlink ref="A38" r:id="rId653"/>
-    <hyperlink ref="A39" r:id="rId654"/>
-    <hyperlink ref="A40" r:id="rId655"/>
-    <hyperlink ref="A41" r:id="rId656"/>
-    <hyperlink ref="A42" r:id="rId657"/>
-    <hyperlink ref="A43" r:id="rId658"/>
-    <hyperlink ref="A44" r:id="rId659"/>
-    <hyperlink ref="A45" r:id="rId660"/>
-    <hyperlink ref="A2" r:id="rId617"/>
-    <hyperlink ref="A3" r:id="rId618"/>
-    <hyperlink ref="A4" r:id="rId619"/>
-    <hyperlink ref="A5" r:id="rId620"/>
-    <hyperlink ref="A6" r:id="rId621"/>
-    <hyperlink ref="A7" r:id="rId622"/>
-    <hyperlink ref="A8" r:id="rId623"/>
-    <hyperlink ref="A9" r:id="rId624"/>
-    <hyperlink ref="A10" r:id="rId625"/>
-    <hyperlink ref="A11" r:id="rId626"/>
-    <hyperlink ref="A12" r:id="rId627"/>
-    <hyperlink ref="A13" r:id="rId628"/>
-    <hyperlink ref="A14" r:id="rId629"/>
-    <hyperlink ref="A15" r:id="rId630"/>
-    <hyperlink ref="A16" r:id="rId631"/>
-    <hyperlink ref="A17" r:id="rId632"/>
-    <hyperlink ref="A18" r:id="rId633"/>
-    <hyperlink ref="A19" r:id="rId634"/>
-    <hyperlink ref="A20" r:id="rId635"/>
-    <hyperlink ref="A21" r:id="rId636"/>
-    <hyperlink ref="A22" r:id="rId637"/>
-    <hyperlink ref="A23" r:id="rId638"/>
-    <hyperlink ref="A24" r:id="rId639"/>
-    <hyperlink ref="A25" r:id="rId640"/>
-    <hyperlink ref="A26" r:id="rId641"/>
-    <hyperlink ref="A27" r:id="rId642"/>
-    <hyperlink ref="A28" r:id="rId643"/>
-    <hyperlink ref="A29" r:id="rId644"/>
-    <hyperlink ref="A30" r:id="rId645"/>
-    <hyperlink ref="A31" r:id="rId646"/>
-    <hyperlink ref="A32" r:id="rId647"/>
-    <hyperlink ref="A33" r:id="rId648"/>
-    <hyperlink ref="A34" r:id="rId649"/>
-    <hyperlink ref="A35" r:id="rId650"/>
-    <hyperlink ref="A36" r:id="rId651"/>
-    <hyperlink ref="A37" r:id="rId652"/>
-    <hyperlink ref="A38" r:id="rId653"/>
-    <hyperlink ref="A39" r:id="rId654"/>
-    <hyperlink ref="A40" r:id="rId655"/>
-    <hyperlink ref="A41" r:id="rId656"/>
-    <hyperlink ref="A42" r:id="rId657"/>
-    <hyperlink ref="A43" r:id="rId658"/>
-    <hyperlink ref="A44" r:id="rId659"/>
-    <hyperlink ref="A45" r:id="rId660"/>
-    <hyperlink ref="A2" r:id="rId617"/>
-    <hyperlink ref="A3" r:id="rId618"/>
-    <hyperlink ref="A4" r:id="rId619"/>
-    <hyperlink ref="A5" r:id="rId620"/>
-    <hyperlink ref="A6" r:id="rId621"/>
-    <hyperlink ref="A7" r:id="rId622"/>
-    <hyperlink ref="A8" r:id="rId623"/>
-    <hyperlink ref="A9" r:id="rId624"/>
-    <hyperlink ref="A10" r:id="rId625"/>
-    <hyperlink ref="A11" r:id="rId626"/>
-    <hyperlink ref="A12" r:id="rId627"/>
-    <hyperlink ref="A13" r:id="rId628"/>
-    <hyperlink ref="A14" r:id="rId629"/>
-    <hyperlink ref="A15" r:id="rId630"/>
-    <hyperlink ref="A16" r:id="rId631"/>
-    <hyperlink ref="A17" r:id="rId632"/>
-    <hyperlink ref="A18" r:id="rId633"/>
-    <hyperlink ref="A19" r:id="rId634"/>
-    <hyperlink ref="A20" r:id="rId635"/>
-    <hyperlink ref="A21" r:id="rId636"/>
-    <hyperlink ref="A22" r:id="rId637"/>
-    <hyperlink ref="A23" r:id="rId638"/>
-    <hyperlink ref="A24" r:id="rId639"/>
-    <hyperlink ref="A25" r:id="rId640"/>
-    <hyperlink ref="A26" r:id="rId641"/>
-    <hyperlink ref="A27" r:id="rId642"/>
-    <hyperlink ref="A28" r:id="rId643"/>
-    <hyperlink ref="A29" r:id="rId644"/>
-    <hyperlink ref="A30" r:id="rId645"/>
-    <hyperlink ref="A31" r:id="rId646"/>
-    <hyperlink ref="A32" r:id="rId647"/>
-    <hyperlink ref="A33" r:id="rId648"/>
-    <hyperlink ref="A34" r:id="rId649"/>
-    <hyperlink ref="A35" r:id="rId650"/>
-    <hyperlink ref="A36" r:id="rId651"/>
-    <hyperlink ref="A37" r:id="rId652"/>
-    <hyperlink ref="A38" r:id="rId653"/>
-    <hyperlink ref="A39" r:id="rId654"/>
-    <hyperlink ref="A40" r:id="rId655"/>
-    <hyperlink ref="A41" r:id="rId656"/>
-    <hyperlink ref="A42" r:id="rId657"/>
-    <hyperlink ref="A43" r:id="rId658"/>
-    <hyperlink ref="A44" r:id="rId659"/>
-    <hyperlink ref="A45" r:id="rId660"/>
-    <hyperlink ref="A2" r:id="rId617"/>
-    <hyperlink ref="A3" r:id="rId618"/>
-    <hyperlink ref="A4" r:id="rId619"/>
-    <hyperlink ref="A5" r:id="rId620"/>
-    <hyperlink ref="A6" r:id="rId621"/>
-    <hyperlink ref="A7" r:id="rId622"/>
-    <hyperlink ref="A8" r:id="rId623"/>
-    <hyperlink ref="A9" r:id="rId624"/>
-    <hyperlink ref="A10" r:id="rId625"/>
-    <hyperlink ref="A11" r:id="rId626"/>
-    <hyperlink ref="A12" r:id="rId627"/>
-    <hyperlink ref="A13" r:id="rId628"/>
-    <hyperlink ref="A14" r:id="rId629"/>
-    <hyperlink ref="A15" r:id="rId630"/>
-    <hyperlink ref="A16" r:id="rId631"/>
-    <hyperlink ref="A17" r:id="rId632"/>
-    <hyperlink ref="A18" r:id="rId633"/>
-    <hyperlink ref="A19" r:id="rId634"/>
-    <hyperlink ref="A20" r:id="rId635"/>
-    <hyperlink ref="A21" r:id="rId636"/>
-    <hyperlink ref="A22" r:id="rId637"/>
-    <hyperlink ref="A23" r:id="rId638"/>
-    <hyperlink ref="A24" r:id="rId639"/>
-    <hyperlink ref="A25" r:id="rId640"/>
-    <hyperlink ref="A26" r:id="rId641"/>
-    <hyperlink ref="A27" r:id="rId642"/>
-    <hyperlink ref="A28" r:id="rId643"/>
-    <hyperlink ref="A29" r:id="rId644"/>
-    <hyperlink ref="A30" r:id="rId645"/>
-    <hyperlink ref="A31" r:id="rId646"/>
-    <hyperlink ref="A32" r:id="rId647"/>
-    <hyperlink ref="A33" r:id="rId648"/>
-    <hyperlink ref="A34" r:id="rId649"/>
-    <hyperlink ref="A35" r:id="rId650"/>
-    <hyperlink ref="A36" r:id="rId651"/>
-    <hyperlink ref="A37" r:id="rId652"/>
-    <hyperlink ref="A38" r:id="rId653"/>
-    <hyperlink ref="A39" r:id="rId654"/>
-    <hyperlink ref="A40" r:id="rId655"/>
-    <hyperlink ref="A41" r:id="rId656"/>
-    <hyperlink ref="A42" r:id="rId657"/>
-    <hyperlink ref="A43" r:id="rId658"/>
-    <hyperlink ref="A44" r:id="rId659"/>
-    <hyperlink ref="A45" r:id="rId660"/>
-    <hyperlink ref="A2" r:id="rId617"/>
-    <hyperlink ref="A3" r:id="rId618"/>
-    <hyperlink ref="A4" r:id="rId619"/>
-    <hyperlink ref="A5" r:id="rId620"/>
-    <hyperlink ref="A6" r:id="rId621"/>
-    <hyperlink ref="A7" r:id="rId622"/>
-    <hyperlink ref="A8" r:id="rId623"/>
-    <hyperlink ref="A9" r:id="rId624"/>
-    <hyperlink ref="A10" r:id="rId625"/>
-    <hyperlink ref="A11" r:id="rId626"/>
-    <hyperlink ref="A12" r:id="rId627"/>
-    <hyperlink ref="A13" r:id="rId628"/>
-    <hyperlink ref="A14" r:id="rId629"/>
-    <hyperlink ref="A15" r:id="rId630"/>
-    <hyperlink ref="A16" r:id="rId631"/>
-    <hyperlink ref="A17" r:id="rId632"/>
-    <hyperlink ref="A18" r:id="rId633"/>
-    <hyperlink ref="A19" r:id="rId634"/>
-    <hyperlink ref="A20" r:id="rId635"/>
-    <hyperlink ref="A21" r:id="rId636"/>
-    <hyperlink ref="A22" r:id="rId637"/>
-    <hyperlink ref="A23" r:id="rId638"/>
-    <hyperlink ref="A24" r:id="rId639"/>
-    <hyperlink ref="A25" r:id="rId640"/>
-    <hyperlink ref="A26" r:id="rId641"/>
-    <hyperlink ref="A27" r:id="rId642"/>
-    <hyperlink ref="A28" r:id="rId643"/>
-    <hyperlink ref="A29" r:id="rId644"/>
-    <hyperlink ref="A30" r:id="rId645"/>
-    <hyperlink ref="A31" r:id="rId646"/>
-    <hyperlink ref="A32" r:id="rId647"/>
-    <hyperlink ref="A33" r:id="rId648"/>
-    <hyperlink ref="A34" r:id="rId649"/>
-    <hyperlink ref="A35" r:id="rId650"/>
-    <hyperlink ref="A36" r:id="rId651"/>
-    <hyperlink ref="A37" r:id="rId652"/>
-    <hyperlink ref="A38" r:id="rId653"/>
-    <hyperlink ref="A39" r:id="rId654"/>
-    <hyperlink ref="A40" r:id="rId655"/>
-    <hyperlink ref="A41" r:id="rId656"/>
-    <hyperlink ref="A42" r:id="rId657"/>
-    <hyperlink ref="A43" r:id="rId658"/>
-    <hyperlink ref="A44" r:id="rId659"/>
-    <hyperlink ref="A45" r:id="rId660"/>
-    <hyperlink ref="A2" r:id="rId617"/>
-    <hyperlink ref="A3" r:id="rId618"/>
-    <hyperlink ref="A4" r:id="rId619"/>
-    <hyperlink ref="A5" r:id="rId620"/>
-    <hyperlink ref="A6" r:id="rId621"/>
-    <hyperlink ref="A7" r:id="rId622"/>
-    <hyperlink ref="A8" r:id="rId623"/>
-    <hyperlink ref="A9" r:id="rId624"/>
-    <hyperlink ref="A10" r:id="rId625"/>
-    <hyperlink ref="A11" r:id="rId626"/>
-    <hyperlink ref="A12" r:id="rId627"/>
-    <hyperlink ref="A13" r:id="rId628"/>
-    <hyperlink ref="A14" r:id="rId629"/>
-    <hyperlink ref="A15" r:id="rId630"/>
-    <hyperlink ref="A16" r:id="rId631"/>
-    <hyperlink ref="A17" r:id="rId632"/>
-    <hyperlink ref="A18" r:id="rId633"/>
-    <hyperlink ref="A19" r:id="rId634"/>
-    <hyperlink ref="A20" r:id="rId635"/>
-    <hyperlink ref="A21" r:id="rId636"/>
-    <hyperlink ref="A22" r:id="rId637"/>
-    <hyperlink ref="A23" r:id="rId638"/>
-    <hyperlink ref="A24" r:id="rId639"/>
-    <hyperlink ref="A25" r:id="rId640"/>
-    <hyperlink ref="A26" r:id="rId641"/>
-    <hyperlink ref="A27" r:id="rId642"/>
-    <hyperlink ref="A28" r:id="rId643"/>
-    <hyperlink ref="A29" r:id="rId644"/>
-    <hyperlink ref="A30" r:id="rId645"/>
-    <hyperlink ref="A31" r:id="rId646"/>
-    <hyperlink ref="A32" r:id="rId647"/>
-    <hyperlink ref="A33" r:id="rId648"/>
-    <hyperlink ref="A34" r:id="rId649"/>
-    <hyperlink ref="A35" r:id="rId650"/>
-    <hyperlink ref="A36" r:id="rId651"/>
-    <hyperlink ref="A37" r:id="rId652"/>
-    <hyperlink ref="A38" r:id="rId653"/>
-    <hyperlink ref="A39" r:id="rId654"/>
-    <hyperlink ref="A40" r:id="rId655"/>
-    <hyperlink ref="A41" r:id="rId656"/>
-    <hyperlink ref="A42" r:id="rId657"/>
-    <hyperlink ref="A43" r:id="rId658"/>
-    <hyperlink ref="A44" r:id="rId659"/>
-    <hyperlink ref="A45" r:id="rId660"/>
-    <hyperlink ref="A2" r:id="rId617"/>
-    <hyperlink ref="A3" r:id="rId618"/>
-    <hyperlink ref="A4" r:id="rId619"/>
-    <hyperlink ref="A5" r:id="rId620"/>
-    <hyperlink ref="A6" r:id="rId621"/>
-    <hyperlink ref="A7" r:id="rId622"/>
-    <hyperlink ref="A8" r:id="rId623"/>
-    <hyperlink ref="A9" r:id="rId624"/>
-    <hyperlink ref="A10" r:id="rId625"/>
-    <hyperlink ref="A11" r:id="rId626"/>
-    <hyperlink ref="A12" r:id="rId627"/>
-    <hyperlink ref="A13" r:id="rId628"/>
-    <hyperlink ref="A14" r:id="rId629"/>
-    <hyperlink ref="A15" r:id="rId630"/>
-    <hyperlink ref="A16" r:id="rId631"/>
-    <hyperlink ref="A17" r:id="rId632"/>
-    <hyperlink ref="A18" r:id="rId633"/>
-    <hyperlink ref="A19" r:id="rId634"/>
-    <hyperlink ref="A20" r:id="rId635"/>
-    <hyperlink ref="A21" r:id="rId636"/>
-    <hyperlink ref="A22" r:id="rId637"/>
-    <hyperlink ref="A23" r:id="rId638"/>
-    <hyperlink ref="A24" r:id="rId639"/>
-    <hyperlink ref="A25" r:id="rId640"/>
-    <hyperlink ref="A26" r:id="rId641"/>
-    <hyperlink ref="A27" r:id="rId642"/>
-    <hyperlink ref="A28" r:id="rId643"/>
-    <hyperlink ref="A29" r:id="rId644"/>
-    <hyperlink ref="A30" r:id="rId645"/>
-    <hyperlink ref="A31" r:id="rId646"/>
-    <hyperlink ref="A32" r:id="rId647"/>
-    <hyperlink ref="A33" r:id="rId648"/>
-    <hyperlink ref="A34" r:id="rId649"/>
-    <hyperlink ref="A35" r:id="rId650"/>
-    <hyperlink ref="A36" r:id="rId651"/>
-    <hyperlink ref="A37" r:id="rId652"/>
-    <hyperlink ref="A38" r:id="rId653"/>
-    <hyperlink ref="A39" r:id="rId654"/>
-    <hyperlink ref="A40" r:id="rId655"/>
-    <hyperlink ref="A41" r:id="rId656"/>
-    <hyperlink ref="A42" r:id="rId657"/>
-    <hyperlink ref="A43" r:id="rId658"/>
-    <hyperlink ref="A44" r:id="rId659"/>
-    <hyperlink ref="A45" r:id="rId660"/>
-    <hyperlink ref="A2" r:id="rId617"/>
-    <hyperlink ref="A3" r:id="rId618"/>
-    <hyperlink ref="A4" r:id="rId619"/>
-    <hyperlink ref="A5" r:id="rId620"/>
-    <hyperlink ref="A6" r:id="rId621"/>
-    <hyperlink ref="A7" r:id="rId622"/>
-    <hyperlink ref="A8" r:id="rId623"/>
-    <hyperlink ref="A9" r:id="rId624"/>
-    <hyperlink ref="A10" r:id="rId625"/>
-    <hyperlink ref="A11" r:id="rId626"/>
-    <hyperlink ref="A12" r:id="rId627"/>
-    <hyperlink ref="A13" r:id="rId628"/>
-    <hyperlink ref="A14" r:id="rId629"/>
-    <hyperlink ref="A15" r:id="rId630"/>
-    <hyperlink ref="A16" r:id="rId631"/>
-    <hyperlink ref="A17" r:id="rId632"/>
-    <hyperlink ref="A18" r:id="rId633"/>
-    <hyperlink ref="A19" r:id="rId634"/>
-    <hyperlink ref="A20" r:id="rId635"/>
-    <hyperlink ref="A21" r:id="rId636"/>
-    <hyperlink ref="A22" r:id="rId637"/>
-    <hyperlink ref="A23" r:id="rId638"/>
-    <hyperlink ref="A24" r:id="rId639"/>
-    <hyperlink ref="A25" r:id="rId640"/>
-    <hyperlink ref="A26" r:id="rId641"/>
-    <hyperlink ref="A27" r:id="rId642"/>
-    <hyperlink ref="A28" r:id="rId643"/>
-    <hyperlink ref="A29" r:id="rId644"/>
-    <hyperlink ref="A30" r:id="rId645"/>
-    <hyperlink ref="A31" r:id="rId646"/>
-    <hyperlink ref="A32" r:id="rId647"/>
-    <hyperlink ref="A33" r:id="rId648"/>
-    <hyperlink ref="A34" r:id="rId649"/>
-    <hyperlink ref="A35" r:id="rId650"/>
-    <hyperlink ref="A36" r:id="rId651"/>
-    <hyperlink ref="A37" r:id="rId652"/>
-    <hyperlink ref="A38" r:id="rId653"/>
-    <hyperlink ref="A39" r:id="rId654"/>
-    <hyperlink ref="A40" r:id="rId655"/>
-    <hyperlink ref="A41" r:id="rId656"/>
-    <hyperlink ref="A42" r:id="rId657"/>
-    <hyperlink ref="A43" r:id="rId658"/>
-    <hyperlink ref="A44" r:id="rId659"/>
-    <hyperlink ref="A45" r:id="rId660"/>
-    <hyperlink ref="A2" r:id="rId617"/>
-    <hyperlink ref="A3" r:id="rId618"/>
-    <hyperlink ref="A4" r:id="rId619"/>
-    <hyperlink ref="A5" r:id="rId620"/>
-    <hyperlink ref="A6" r:id="rId621"/>
-    <hyperlink ref="A7" r:id="rId622"/>
-    <hyperlink ref="A8" r:id="rId623"/>
-    <hyperlink ref="A9" r:id="rId624"/>
-    <hyperlink ref="A10" r:id="rId625"/>
-    <hyperlink ref="A11" r:id="rId626"/>
-    <hyperlink ref="A12" r:id="rId627"/>
-    <hyperlink ref="A13" r:id="rId628"/>
-    <hyperlink ref="A14" r:id="rId629"/>
-    <hyperlink ref="A15" r:id="rId630"/>
-    <hyperlink ref="A16" r:id="rId631"/>
-    <hyperlink ref="A17" r:id="rId632"/>
-    <hyperlink ref="A18" r:id="rId633"/>
-    <hyperlink ref="A19" r:id="rId634"/>
-    <hyperlink ref="A20" r:id="rId635"/>
-    <hyperlink ref="A21" r:id="rId636"/>
-    <hyperlink ref="A22" r:id="rId637"/>
-    <hyperlink ref="A23" r:id="rId638"/>
-    <hyperlink ref="A24" r:id="rId639"/>
-    <hyperlink ref="A25" r:id="rId640"/>
-    <hyperlink ref="A26" r:id="rId641"/>
-    <hyperlink ref="A27" r:id="rId642"/>
-    <hyperlink ref="A28" r:id="rId643"/>
-    <hyperlink ref="A29" r:id="rId644"/>
-    <hyperlink ref="A30" r:id="rId645"/>
-    <hyperlink ref="A31" r:id="rId646"/>
-    <hyperlink ref="A32" r:id="rId647"/>
-    <hyperlink ref="A33" r:id="rId648"/>
-    <hyperlink ref="A34" r:id="rId649"/>
-    <hyperlink ref="A35" r:id="rId650"/>
-    <hyperlink ref="A36" r:id="rId651"/>
-    <hyperlink ref="A37" r:id="rId652"/>
-    <hyperlink ref="A38" r:id="rId653"/>
-    <hyperlink ref="A39" r:id="rId654"/>
-    <hyperlink ref="A40" r:id="rId655"/>
-    <hyperlink ref="A41" r:id="rId656"/>
-    <hyperlink ref="A42" r:id="rId657"/>
-    <hyperlink ref="A43" r:id="rId658"/>
-    <hyperlink ref="A44" r:id="rId659"/>
-    <hyperlink ref="A45" r:id="rId660"/>
-    <hyperlink ref="A2" r:id="rId617"/>
-    <hyperlink ref="A3" r:id="rId618"/>
-    <hyperlink ref="A4" r:id="rId619"/>
-    <hyperlink ref="A5" r:id="rId620"/>
-    <hyperlink ref="A6" r:id="rId621"/>
-    <hyperlink ref="A7" r:id="rId622"/>
-    <hyperlink ref="A8" r:id="rId623"/>
-    <hyperlink ref="A9" r:id="rId624"/>
-    <hyperlink ref="A10" r:id="rId625"/>
-    <hyperlink ref="A11" r:id="rId626"/>
-    <hyperlink ref="A12" r:id="rId627"/>
-    <hyperlink ref="A13" r:id="rId628"/>
-    <hyperlink ref="A14" r:id="rId629"/>
-    <hyperlink ref="A15" r:id="rId630"/>
-    <hyperlink ref="A16" r:id="rId631"/>
-    <hyperlink ref="A17" r:id="rId632"/>
-    <hyperlink ref="A18" r:id="rId633"/>
-    <hyperlink ref="A19" r:id="rId634"/>
-    <hyperlink ref="A20" r:id="rId635"/>
-    <hyperlink ref="A21" r:id="rId636"/>
-    <hyperlink ref="A22" r:id="rId637"/>
-    <hyperlink ref="A23" r:id="rId638"/>
-    <hyperlink ref="A24" r:id="rId639"/>
-    <hyperlink ref="A25" r:id="rId640"/>
-    <hyperlink ref="A26" r:id="rId641"/>
-    <hyperlink ref="A27" r:id="rId642"/>
-    <hyperlink ref="A28" r:id="rId643"/>
-    <hyperlink ref="A29" r:id="rId644"/>
-    <hyperlink ref="A30" r:id="rId645"/>
-    <hyperlink ref="A31" r:id="rId646"/>
-    <hyperlink ref="A32" r:id="rId647"/>
-    <hyperlink ref="A33" r:id="rId648"/>
-    <hyperlink ref="A34" r:id="rId649"/>
-    <hyperlink ref="A35" r:id="rId650"/>
-    <hyperlink ref="A36" r:id="rId651"/>
-    <hyperlink ref="A37" r:id="rId652"/>
-    <hyperlink ref="A38" r:id="rId653"/>
-    <hyperlink ref="A39" r:id="rId654"/>
-    <hyperlink ref="A40" r:id="rId655"/>
-    <hyperlink ref="A41" r:id="rId656"/>
-    <hyperlink ref="A42" r:id="rId657"/>
-    <hyperlink ref="A43" r:id="rId658"/>
-    <hyperlink ref="A44" r:id="rId659"/>
-    <hyperlink ref="A45" r:id="rId660"/>
-    <hyperlink ref="A2" r:id="rId617"/>
-    <hyperlink ref="A3" r:id="rId618"/>
-    <hyperlink ref="A4" r:id="rId619"/>
-    <hyperlink ref="A5" r:id="rId620"/>
-    <hyperlink ref="A6" r:id="rId621"/>
-    <hyperlink ref="A7" r:id="rId622"/>
-    <hyperlink ref="A8" r:id="rId623"/>
-    <hyperlink ref="A9" r:id="rId624"/>
-    <hyperlink ref="A10" r:id="rId625"/>
-    <hyperlink ref="A11" r:id="rId626"/>
-    <hyperlink ref="A12" r:id="rId627"/>
-    <hyperlink ref="A13" r:id="rId628"/>
-    <hyperlink ref="A14" r:id="rId629"/>
-    <hyperlink ref="A15" r:id="rId630"/>
-    <hyperlink ref="A16" r:id="rId631"/>
-    <hyperlink ref="A17" r:id="rId632"/>
-    <hyperlink ref="A18" r:id="rId633"/>
-    <hyperlink ref="A19" r:id="rId634"/>
-    <hyperlink ref="A20" r:id="rId635"/>
-    <hyperlink ref="A21" r:id="rId636"/>
-    <hyperlink ref="A22" r:id="rId637"/>
-    <hyperlink ref="A23" r:id="rId638"/>
-    <hyperlink ref="A24" r:id="rId639"/>
-    <hyperlink ref="A25" r:id="rId640"/>
-    <hyperlink ref="A26" r:id="rId641"/>
-    <hyperlink ref="A27" r:id="rId642"/>
-    <hyperlink ref="A28" r:id="rId643"/>
-    <hyperlink ref="A29" r:id="rId644"/>
-    <hyperlink ref="A30" r:id="rId645"/>
-    <hyperlink ref="A31" r:id="rId646"/>
-    <hyperlink ref="A32" r:id="rId647"/>
-    <hyperlink ref="A33" r:id="rId648"/>
-    <hyperlink ref="A34" r:id="rId649"/>
-    <hyperlink ref="A35" r:id="rId650"/>
-    <hyperlink ref="A36" r:id="rId651"/>
-    <hyperlink ref="A37" r:id="rId652"/>
-    <hyperlink ref="A38" r:id="rId653"/>
-    <hyperlink ref="A39" r:id="rId654"/>
-    <hyperlink ref="A40" r:id="rId655"/>
-    <hyperlink ref="A41" r:id="rId656"/>
-    <hyperlink ref="A42" r:id="rId657"/>
-    <hyperlink ref="A43" r:id="rId658"/>
-    <hyperlink ref="A44" r:id="rId659"/>
-    <hyperlink ref="A45" r:id="rId660"/>
-    <hyperlink ref="A2" r:id="rId617"/>
-    <hyperlink ref="A3" r:id="rId618"/>
-    <hyperlink ref="A4" r:id="rId619"/>
-    <hyperlink ref="A5" r:id="rId620"/>
-    <hyperlink ref="A6" r:id="rId621"/>
-    <hyperlink ref="A7" r:id="rId622"/>
-    <hyperlink ref="A8" r:id="rId623"/>
-    <hyperlink ref="A9" r:id="rId624"/>
-    <hyperlink ref="A10" r:id="rId625"/>
-    <hyperlink ref="A11" r:id="rId626"/>
-    <hyperlink ref="A12" r:id="rId627"/>
-    <hyperlink ref="A13" r:id="rId628"/>
-    <hyperlink ref="A14" r:id="rId629"/>
-    <hyperlink ref="A15" r:id="rId630"/>
-    <hyperlink ref="A16" r:id="rId631"/>
-    <hyperlink ref="A17" r:id="rId632"/>
-    <hyperlink ref="A18" r:id="rId633"/>
-    <hyperlink ref="A19" r:id="rId634"/>
-    <hyperlink ref="A20" r:id="rId635"/>
-    <hyperlink ref="A21" r:id="rId636"/>
-    <hyperlink ref="A22" r:id="rId637"/>
-    <hyperlink ref="A23" r:id="rId638"/>
-    <hyperlink ref="A24" r:id="rId639"/>
-    <hyperlink ref="A25" r:id="rId640"/>
-    <hyperlink ref="A26" r:id="rId641"/>
-    <hyperlink ref="A27" r:id="rId642"/>
-    <hyperlink ref="A28" r:id="rId643"/>
-    <hyperlink ref="A29" r:id="rId644"/>
-    <hyperlink ref="A30" r:id="rId645"/>
-    <hyperlink ref="A31" r:id="rId646"/>
-    <hyperlink ref="A32" r:id="rId647"/>
-    <hyperlink ref="A33" r:id="rId648"/>
-    <hyperlink ref="A34" r:id="rId649"/>
-    <hyperlink ref="A35" r:id="rId650"/>
-    <hyperlink ref="A36" r:id="rId651"/>
-    <hyperlink ref="A37" r:id="rId652"/>
-    <hyperlink ref="A38" r:id="rId653"/>
-    <hyperlink ref="A39" r:id="rId654"/>
-    <hyperlink ref="A40" r:id="rId655"/>
-    <hyperlink ref="A41" r:id="rId656"/>
-    <hyperlink ref="A42" r:id="rId657"/>
-    <hyperlink ref="A43" r:id="rId658"/>
-    <hyperlink ref="A44" r:id="rId659"/>
-    <hyperlink ref="A45" r:id="rId660"/>
-    <hyperlink ref="A2" r:id="rId617"/>
-    <hyperlink ref="A3" r:id="rId618"/>
-    <hyperlink ref="A4" r:id="rId619"/>
-    <hyperlink ref="A5" r:id="rId620"/>
-    <hyperlink ref="A6" r:id="rId621"/>
-    <hyperlink ref="A7" r:id="rId622"/>
-    <hyperlink ref="A8" r:id="rId623"/>
-    <hyperlink ref="A9" r:id="rId624"/>
-    <hyperlink ref="A10" r:id="rId625"/>
-    <hyperlink ref="A11" r:id="rId626"/>
-    <hyperlink ref="A12" r:id="rId627"/>
-    <hyperlink ref="A13" r:id="rId628"/>
-    <hyperlink ref="A14" r:id="rId629"/>
-    <hyperlink ref="A15" r:id="rId630"/>
-    <hyperlink ref="A16" r:id="rId631"/>
-    <hyperlink ref="A17" r:id="rId632"/>
-    <hyperlink ref="A18" r:id="rId633"/>
-    <hyperlink ref="A19" r:id="rId634"/>
-    <hyperlink ref="A20" r:id="rId635"/>
-    <hyperlink ref="A21" r:id="rId636"/>
-    <hyperlink ref="A22" r:id="rId637"/>
-    <hyperlink ref="A23" r:id="rId638"/>
-    <hyperlink ref="A24" r:id="rId639"/>
-    <hyperlink ref="A25" r:id="rId640"/>
-    <hyperlink ref="A26" r:id="rId641"/>
-    <hyperlink ref="A27" r:id="rId642"/>
-    <hyperlink ref="A28" r:id="rId643"/>
-    <hyperlink ref="A29" r:id="rId644"/>
-    <hyperlink ref="A30" r:id="rId645"/>
-    <hyperlink ref="A31" r:id="rId646"/>
-    <hyperlink ref="A32" r:id="rId647"/>
-    <hyperlink ref="A33" r:id="rId648"/>
-    <hyperlink ref="A34" r:id="rId649"/>
-    <hyperlink ref="A35" r:id="rId650"/>
-    <hyperlink ref="A36" r:id="rId651"/>
-    <hyperlink ref="A37" r:id="rId652"/>
-    <hyperlink ref="A38" r:id="rId653"/>
-    <hyperlink ref="A39" r:id="rId654"/>
-    <hyperlink ref="A40" r:id="rId655"/>
-    <hyperlink ref="A41" r:id="rId656"/>
-    <hyperlink ref="A42" r:id="rId657"/>
-    <hyperlink ref="A43" r:id="rId658"/>
-    <hyperlink ref="A44" r:id="rId659"/>
-    <hyperlink ref="A45" r:id="rId660"/>
-    <hyperlink ref="A2" r:id="rId617"/>
-    <hyperlink ref="A3" r:id="rId618"/>
-    <hyperlink ref="A4" r:id="rId619"/>
-    <hyperlink ref="A5" r:id="rId620"/>
-    <hyperlink ref="A6" r:id="rId621"/>
-    <hyperlink ref="A7" r:id="rId622"/>
-    <hyperlink ref="A8" r:id="rId623"/>
-    <hyperlink ref="A9" r:id="rId624"/>
-    <hyperlink ref="A10" r:id="rId625"/>
-    <hyperlink ref="A11" r:id="rId626"/>
-    <hyperlink ref="A12" r:id="rId627"/>
-    <hyperlink ref="A13" r:id="rId628"/>
-    <hyperlink ref="A14" r:id="rId629"/>
-    <hyperlink ref="A15" r:id="rId630"/>
-    <hyperlink ref="A16" r:id="rId631"/>
-    <hyperlink ref="A17" r:id="rId632"/>
-    <hyperlink ref="A18" r:id="rId633"/>
-    <hyperlink ref="A19" r:id="rId634"/>
-    <hyperlink ref="A20" r:id="rId635"/>
-    <hyperlink ref="A21" r:id="rId636"/>
-    <hyperlink ref="A22" r:id="rId637"/>
-    <hyperlink ref="A23" r:id="rId638"/>
-    <hyperlink ref="A24" r:id="rId639"/>
-    <hyperlink ref="A25" r:id="rId640"/>
-    <hyperlink ref="A26" r:id="rId641"/>
-    <hyperlink ref="A27" r:id="rId642"/>
-    <hyperlink ref="A28" r:id="rId643"/>
-    <hyperlink ref="A29" r:id="rId644"/>
-    <hyperlink ref="A30" r:id="rId645"/>
-    <hyperlink ref="A31" r:id="rId646"/>
-    <hyperlink ref="A32" r:id="rId647"/>
-    <hyperlink ref="A33" r:id="rId648"/>
-    <hyperlink ref="A34" r:id="rId649"/>
-    <hyperlink ref="A35" r:id="rId650"/>
-    <hyperlink ref="A36" r:id="rId651"/>
-    <hyperlink ref="A37" r:id="rId652"/>
-    <hyperlink ref="A38" r:id="rId653"/>
-    <hyperlink ref="A39" r:id="rId654"/>
-    <hyperlink ref="A40" r:id="rId655"/>
-    <hyperlink ref="A41" r:id="rId656"/>
-    <hyperlink ref="A42" r:id="rId657"/>
-    <hyperlink ref="A43" r:id="rId658"/>
-    <hyperlink ref="A44" r:id="rId659"/>
-    <hyperlink ref="A45" r:id="rId660"/>
-    <hyperlink ref="A2" r:id="rId617"/>
-    <hyperlink ref="A3" r:id="rId618"/>
-    <hyperlink ref="A4" r:id="rId619"/>
-    <hyperlink ref="A5" r:id="rId620"/>
-    <hyperlink ref="A6" r:id="rId621"/>
-    <hyperlink ref="A7" r:id="rId622"/>
-    <hyperlink ref="A8" r:id="rId623"/>
-    <hyperlink ref="A9" r:id="rId624"/>
-    <hyperlink ref="A10" r:id="rId625"/>
-    <hyperlink ref="A11" r:id="rId626"/>
-    <hyperlink ref="A12" r:id="rId627"/>
-    <hyperlink ref="A13" r:id="rId628"/>
-    <hyperlink ref="A14" r:id="rId629"/>
-    <hyperlink ref="A15" r:id="rId630"/>
-    <hyperlink ref="A16" r:id="rId631"/>
-    <hyperlink ref="A17" r:id="rId632"/>
-    <hyperlink ref="A18" r:id="rId633"/>
-    <hyperlink ref="A19" r:id="rId634"/>
-    <hyperlink ref="A20" r:id="rId635"/>
-    <hyperlink ref="A21" r:id="rId636"/>
-    <hyperlink ref="A22" r:id="rId637"/>
-    <hyperlink ref="A23" r:id="rId638"/>
-    <hyperlink ref="A24" r:id="rId639"/>
-    <hyperlink ref="A25" r:id="rId640"/>
-    <hyperlink ref="A26" r:id="rId641"/>
-    <hyperlink ref="A27" r:id="rId642"/>
-    <hyperlink ref="A28" r:id="rId643"/>
-    <hyperlink ref="A29" r:id="rId644"/>
-    <hyperlink ref="A30" r:id="rId645"/>
-    <hyperlink ref="A31" r:id="rId646"/>
-    <hyperlink ref="A32" r:id="rId647"/>
-    <hyperlink ref="A33" r:id="rId648"/>
-    <hyperlink ref="A34" r:id="rId649"/>
-    <hyperlink ref="A35" r:id="rId650"/>
-    <hyperlink ref="A36" r:id="rId651"/>
-    <hyperlink ref="A37" r:id="rId652"/>
-    <hyperlink ref="A38" r:id="rId653"/>
-    <hyperlink ref="A39" r:id="rId654"/>
-    <hyperlink ref="A40" r:id="rId655"/>
-    <hyperlink ref="A41" r:id="rId656"/>
-    <hyperlink ref="A42" r:id="rId657"/>
-    <hyperlink ref="A43" r:id="rId658"/>
-    <hyperlink ref="A44" r:id="rId659"/>
-    <hyperlink ref="A45" r:id="rId660"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -19481,666 +20351,1106 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId617"/>
-    <hyperlink ref="A3" r:id="rId618"/>
-    <hyperlink ref="A4" r:id="rId619"/>
-    <hyperlink ref="A5" r:id="rId620"/>
-    <hyperlink ref="A6" r:id="rId621"/>
-    <hyperlink ref="A7" r:id="rId622"/>
-    <hyperlink ref="A8" r:id="rId623"/>
-    <hyperlink ref="A9" r:id="rId624"/>
-    <hyperlink ref="A10" r:id="rId625"/>
-    <hyperlink ref="A11" r:id="rId626"/>
-    <hyperlink ref="A12" r:id="rId627"/>
-    <hyperlink ref="A13" r:id="rId628"/>
-    <hyperlink ref="A14" r:id="rId629"/>
-    <hyperlink ref="A15" r:id="rId630"/>
-    <hyperlink ref="A16" r:id="rId631"/>
-    <hyperlink ref="A17" r:id="rId632"/>
-    <hyperlink ref="A18" r:id="rId633"/>
-    <hyperlink ref="A19" r:id="rId634"/>
-    <hyperlink ref="A20" r:id="rId635"/>
-    <hyperlink ref="A21" r:id="rId636"/>
-    <hyperlink ref="A22" r:id="rId637"/>
-    <hyperlink ref="A23" r:id="rId638"/>
-    <hyperlink ref="A24" r:id="rId639"/>
-    <hyperlink ref="A25" r:id="rId640"/>
-    <hyperlink ref="A26" r:id="rId641"/>
-    <hyperlink ref="A27" r:id="rId642"/>
-    <hyperlink ref="A28" r:id="rId643"/>
-    <hyperlink ref="A29" r:id="rId644"/>
-    <hyperlink ref="A30" r:id="rId645"/>
-    <hyperlink ref="A31" r:id="rId646"/>
-    <hyperlink ref="A32" r:id="rId647"/>
-    <hyperlink ref="A33" r:id="rId648"/>
-    <hyperlink ref="A34" r:id="rId649"/>
-    <hyperlink ref="A35" r:id="rId650"/>
-    <hyperlink ref="A36" r:id="rId651"/>
-    <hyperlink ref="A37" r:id="rId652"/>
-    <hyperlink ref="A38" r:id="rId653"/>
-    <hyperlink ref="A39" r:id="rId654"/>
-    <hyperlink ref="A40" r:id="rId655"/>
-    <hyperlink ref="A41" r:id="rId656"/>
-    <hyperlink ref="A42" r:id="rId657"/>
-    <hyperlink ref="A43" r:id="rId658"/>
-    <hyperlink ref="A44" r:id="rId659"/>
-    <hyperlink ref="A45" r:id="rId660"/>
-    <hyperlink ref="A2" r:id="rId617"/>
-    <hyperlink ref="A3" r:id="rId618"/>
-    <hyperlink ref="A4" r:id="rId619"/>
-    <hyperlink ref="A5" r:id="rId620"/>
-    <hyperlink ref="A6" r:id="rId621"/>
-    <hyperlink ref="A7" r:id="rId622"/>
-    <hyperlink ref="A8" r:id="rId623"/>
-    <hyperlink ref="A9" r:id="rId624"/>
-    <hyperlink ref="A10" r:id="rId625"/>
-    <hyperlink ref="A11" r:id="rId626"/>
-    <hyperlink ref="A12" r:id="rId627"/>
-    <hyperlink ref="A13" r:id="rId628"/>
-    <hyperlink ref="A14" r:id="rId629"/>
-    <hyperlink ref="A15" r:id="rId630"/>
-    <hyperlink ref="A16" r:id="rId631"/>
-    <hyperlink ref="A17" r:id="rId632"/>
-    <hyperlink ref="A18" r:id="rId633"/>
-    <hyperlink ref="A19" r:id="rId634"/>
-    <hyperlink ref="A20" r:id="rId635"/>
-    <hyperlink ref="A21" r:id="rId636"/>
-    <hyperlink ref="A22" r:id="rId637"/>
-    <hyperlink ref="A23" r:id="rId638"/>
-    <hyperlink ref="A24" r:id="rId639"/>
-    <hyperlink ref="A25" r:id="rId640"/>
-    <hyperlink ref="A26" r:id="rId641"/>
-    <hyperlink ref="A27" r:id="rId642"/>
-    <hyperlink ref="A28" r:id="rId643"/>
-    <hyperlink ref="A29" r:id="rId644"/>
-    <hyperlink ref="A30" r:id="rId645"/>
-    <hyperlink ref="A31" r:id="rId646"/>
-    <hyperlink ref="A32" r:id="rId647"/>
-    <hyperlink ref="A33" r:id="rId648"/>
-    <hyperlink ref="A34" r:id="rId649"/>
-    <hyperlink ref="A35" r:id="rId650"/>
-    <hyperlink ref="A36" r:id="rId651"/>
-    <hyperlink ref="A37" r:id="rId652"/>
-    <hyperlink ref="A38" r:id="rId653"/>
-    <hyperlink ref="A39" r:id="rId654"/>
-    <hyperlink ref="A40" r:id="rId655"/>
-    <hyperlink ref="A41" r:id="rId656"/>
-    <hyperlink ref="A42" r:id="rId657"/>
-    <hyperlink ref="A43" r:id="rId658"/>
-    <hyperlink ref="A44" r:id="rId659"/>
-    <hyperlink ref="A45" r:id="rId660"/>
-    <hyperlink ref="A2" r:id="rId617"/>
-    <hyperlink ref="A3" r:id="rId618"/>
-    <hyperlink ref="A4" r:id="rId619"/>
-    <hyperlink ref="A5" r:id="rId620"/>
-    <hyperlink ref="A6" r:id="rId621"/>
-    <hyperlink ref="A7" r:id="rId622"/>
-    <hyperlink ref="A8" r:id="rId623"/>
-    <hyperlink ref="A9" r:id="rId624"/>
-    <hyperlink ref="A10" r:id="rId625"/>
-    <hyperlink ref="A11" r:id="rId626"/>
-    <hyperlink ref="A12" r:id="rId627"/>
-    <hyperlink ref="A13" r:id="rId628"/>
-    <hyperlink ref="A14" r:id="rId629"/>
-    <hyperlink ref="A15" r:id="rId630"/>
-    <hyperlink ref="A16" r:id="rId631"/>
-    <hyperlink ref="A17" r:id="rId632"/>
-    <hyperlink ref="A18" r:id="rId633"/>
-    <hyperlink ref="A19" r:id="rId634"/>
-    <hyperlink ref="A20" r:id="rId635"/>
-    <hyperlink ref="A21" r:id="rId636"/>
-    <hyperlink ref="A22" r:id="rId637"/>
-    <hyperlink ref="A23" r:id="rId638"/>
-    <hyperlink ref="A24" r:id="rId639"/>
-    <hyperlink ref="A25" r:id="rId640"/>
-    <hyperlink ref="A26" r:id="rId641"/>
-    <hyperlink ref="A27" r:id="rId642"/>
-    <hyperlink ref="A28" r:id="rId643"/>
-    <hyperlink ref="A29" r:id="rId644"/>
-    <hyperlink ref="A30" r:id="rId645"/>
-    <hyperlink ref="A31" r:id="rId646"/>
-    <hyperlink ref="A32" r:id="rId647"/>
-    <hyperlink ref="A33" r:id="rId648"/>
-    <hyperlink ref="A34" r:id="rId649"/>
-    <hyperlink ref="A35" r:id="rId650"/>
-    <hyperlink ref="A36" r:id="rId651"/>
-    <hyperlink ref="A37" r:id="rId652"/>
-    <hyperlink ref="A38" r:id="rId653"/>
-    <hyperlink ref="A39" r:id="rId654"/>
-    <hyperlink ref="A40" r:id="rId655"/>
-    <hyperlink ref="A41" r:id="rId656"/>
-    <hyperlink ref="A42" r:id="rId657"/>
-    <hyperlink ref="A43" r:id="rId658"/>
-    <hyperlink ref="A44" r:id="rId659"/>
-    <hyperlink ref="A45" r:id="rId660"/>
-    <hyperlink ref="A2" r:id="rId617"/>
-    <hyperlink ref="A3" r:id="rId618"/>
-    <hyperlink ref="A4" r:id="rId619"/>
-    <hyperlink ref="A5" r:id="rId620"/>
-    <hyperlink ref="A6" r:id="rId621"/>
-    <hyperlink ref="A7" r:id="rId622"/>
-    <hyperlink ref="A8" r:id="rId623"/>
-    <hyperlink ref="A9" r:id="rId624"/>
-    <hyperlink ref="A10" r:id="rId625"/>
-    <hyperlink ref="A11" r:id="rId626"/>
-    <hyperlink ref="A12" r:id="rId627"/>
-    <hyperlink ref="A13" r:id="rId628"/>
-    <hyperlink ref="A14" r:id="rId629"/>
-    <hyperlink ref="A15" r:id="rId630"/>
-    <hyperlink ref="A16" r:id="rId631"/>
-    <hyperlink ref="A17" r:id="rId632"/>
-    <hyperlink ref="A18" r:id="rId633"/>
-    <hyperlink ref="A19" r:id="rId634"/>
-    <hyperlink ref="A20" r:id="rId635"/>
-    <hyperlink ref="A21" r:id="rId636"/>
-    <hyperlink ref="A22" r:id="rId637"/>
-    <hyperlink ref="A23" r:id="rId638"/>
-    <hyperlink ref="A24" r:id="rId639"/>
-    <hyperlink ref="A25" r:id="rId640"/>
-    <hyperlink ref="A26" r:id="rId641"/>
-    <hyperlink ref="A27" r:id="rId642"/>
-    <hyperlink ref="A28" r:id="rId643"/>
-    <hyperlink ref="A29" r:id="rId644"/>
-    <hyperlink ref="A30" r:id="rId645"/>
-    <hyperlink ref="A31" r:id="rId646"/>
-    <hyperlink ref="A32" r:id="rId647"/>
-    <hyperlink ref="A33" r:id="rId648"/>
-    <hyperlink ref="A34" r:id="rId649"/>
-    <hyperlink ref="A35" r:id="rId650"/>
-    <hyperlink ref="A36" r:id="rId651"/>
-    <hyperlink ref="A37" r:id="rId652"/>
-    <hyperlink ref="A38" r:id="rId653"/>
-    <hyperlink ref="A39" r:id="rId654"/>
-    <hyperlink ref="A40" r:id="rId655"/>
-    <hyperlink ref="A41" r:id="rId656"/>
-    <hyperlink ref="A42" r:id="rId657"/>
-    <hyperlink ref="A43" r:id="rId658"/>
-    <hyperlink ref="A44" r:id="rId659"/>
-    <hyperlink ref="A45" r:id="rId660"/>
-    <hyperlink ref="A2" r:id="rId617"/>
-    <hyperlink ref="A3" r:id="rId618"/>
-    <hyperlink ref="A4" r:id="rId619"/>
-    <hyperlink ref="A5" r:id="rId620"/>
-    <hyperlink ref="A6" r:id="rId621"/>
-    <hyperlink ref="A7" r:id="rId622"/>
-    <hyperlink ref="A8" r:id="rId623"/>
-    <hyperlink ref="A9" r:id="rId624"/>
-    <hyperlink ref="A10" r:id="rId625"/>
-    <hyperlink ref="A11" r:id="rId626"/>
-    <hyperlink ref="A12" r:id="rId627"/>
-    <hyperlink ref="A13" r:id="rId628"/>
-    <hyperlink ref="A14" r:id="rId629"/>
-    <hyperlink ref="A15" r:id="rId630"/>
-    <hyperlink ref="A16" r:id="rId631"/>
-    <hyperlink ref="A17" r:id="rId632"/>
-    <hyperlink ref="A18" r:id="rId633"/>
-    <hyperlink ref="A19" r:id="rId634"/>
-    <hyperlink ref="A20" r:id="rId635"/>
-    <hyperlink ref="A21" r:id="rId636"/>
-    <hyperlink ref="A22" r:id="rId637"/>
-    <hyperlink ref="A23" r:id="rId638"/>
-    <hyperlink ref="A24" r:id="rId639"/>
-    <hyperlink ref="A25" r:id="rId640"/>
-    <hyperlink ref="A26" r:id="rId641"/>
-    <hyperlink ref="A27" r:id="rId642"/>
-    <hyperlink ref="A28" r:id="rId643"/>
-    <hyperlink ref="A29" r:id="rId644"/>
-    <hyperlink ref="A30" r:id="rId645"/>
-    <hyperlink ref="A31" r:id="rId646"/>
-    <hyperlink ref="A32" r:id="rId647"/>
-    <hyperlink ref="A33" r:id="rId648"/>
-    <hyperlink ref="A34" r:id="rId649"/>
-    <hyperlink ref="A35" r:id="rId650"/>
-    <hyperlink ref="A36" r:id="rId651"/>
-    <hyperlink ref="A37" r:id="rId652"/>
-    <hyperlink ref="A38" r:id="rId653"/>
-    <hyperlink ref="A39" r:id="rId654"/>
-    <hyperlink ref="A40" r:id="rId655"/>
-    <hyperlink ref="A41" r:id="rId656"/>
-    <hyperlink ref="A42" r:id="rId657"/>
-    <hyperlink ref="A43" r:id="rId658"/>
-    <hyperlink ref="A44" r:id="rId659"/>
-    <hyperlink ref="A45" r:id="rId660"/>
-    <hyperlink ref="A2" r:id="rId617"/>
-    <hyperlink ref="A3" r:id="rId618"/>
-    <hyperlink ref="A4" r:id="rId619"/>
-    <hyperlink ref="A5" r:id="rId620"/>
-    <hyperlink ref="A6" r:id="rId621"/>
-    <hyperlink ref="A7" r:id="rId622"/>
-    <hyperlink ref="A8" r:id="rId623"/>
-    <hyperlink ref="A9" r:id="rId624"/>
-    <hyperlink ref="A10" r:id="rId625"/>
-    <hyperlink ref="A11" r:id="rId626"/>
-    <hyperlink ref="A12" r:id="rId627"/>
-    <hyperlink ref="A13" r:id="rId628"/>
-    <hyperlink ref="A14" r:id="rId629"/>
-    <hyperlink ref="A15" r:id="rId630"/>
-    <hyperlink ref="A16" r:id="rId631"/>
-    <hyperlink ref="A17" r:id="rId632"/>
-    <hyperlink ref="A18" r:id="rId633"/>
-    <hyperlink ref="A19" r:id="rId634"/>
-    <hyperlink ref="A20" r:id="rId635"/>
-    <hyperlink ref="A21" r:id="rId636"/>
-    <hyperlink ref="A22" r:id="rId637"/>
-    <hyperlink ref="A23" r:id="rId638"/>
-    <hyperlink ref="A24" r:id="rId639"/>
-    <hyperlink ref="A25" r:id="rId640"/>
-    <hyperlink ref="A26" r:id="rId641"/>
-    <hyperlink ref="A27" r:id="rId642"/>
-    <hyperlink ref="A28" r:id="rId643"/>
-    <hyperlink ref="A29" r:id="rId644"/>
-    <hyperlink ref="A30" r:id="rId645"/>
-    <hyperlink ref="A31" r:id="rId646"/>
-    <hyperlink ref="A32" r:id="rId647"/>
-    <hyperlink ref="A33" r:id="rId648"/>
-    <hyperlink ref="A34" r:id="rId649"/>
-    <hyperlink ref="A35" r:id="rId650"/>
-    <hyperlink ref="A36" r:id="rId651"/>
-    <hyperlink ref="A37" r:id="rId652"/>
-    <hyperlink ref="A38" r:id="rId653"/>
-    <hyperlink ref="A39" r:id="rId654"/>
-    <hyperlink ref="A40" r:id="rId655"/>
-    <hyperlink ref="A41" r:id="rId656"/>
-    <hyperlink ref="A42" r:id="rId657"/>
-    <hyperlink ref="A43" r:id="rId658"/>
-    <hyperlink ref="A44" r:id="rId659"/>
-    <hyperlink ref="A45" r:id="rId660"/>
-    <hyperlink ref="A2" r:id="rId617"/>
-    <hyperlink ref="A3" r:id="rId618"/>
-    <hyperlink ref="A4" r:id="rId619"/>
-    <hyperlink ref="A5" r:id="rId620"/>
-    <hyperlink ref="A6" r:id="rId621"/>
-    <hyperlink ref="A7" r:id="rId622"/>
-    <hyperlink ref="A8" r:id="rId623"/>
-    <hyperlink ref="A9" r:id="rId624"/>
-    <hyperlink ref="A10" r:id="rId625"/>
-    <hyperlink ref="A11" r:id="rId626"/>
-    <hyperlink ref="A12" r:id="rId627"/>
-    <hyperlink ref="A13" r:id="rId628"/>
-    <hyperlink ref="A14" r:id="rId629"/>
-    <hyperlink ref="A15" r:id="rId630"/>
-    <hyperlink ref="A16" r:id="rId631"/>
-    <hyperlink ref="A17" r:id="rId632"/>
-    <hyperlink ref="A18" r:id="rId633"/>
-    <hyperlink ref="A19" r:id="rId634"/>
-    <hyperlink ref="A20" r:id="rId635"/>
-    <hyperlink ref="A21" r:id="rId636"/>
-    <hyperlink ref="A22" r:id="rId637"/>
-    <hyperlink ref="A23" r:id="rId638"/>
-    <hyperlink ref="A24" r:id="rId639"/>
-    <hyperlink ref="A25" r:id="rId640"/>
-    <hyperlink ref="A26" r:id="rId641"/>
-    <hyperlink ref="A27" r:id="rId642"/>
-    <hyperlink ref="A28" r:id="rId643"/>
-    <hyperlink ref="A29" r:id="rId644"/>
-    <hyperlink ref="A30" r:id="rId645"/>
-    <hyperlink ref="A31" r:id="rId646"/>
-    <hyperlink ref="A32" r:id="rId647"/>
-    <hyperlink ref="A33" r:id="rId648"/>
-    <hyperlink ref="A34" r:id="rId649"/>
-    <hyperlink ref="A35" r:id="rId650"/>
-    <hyperlink ref="A36" r:id="rId651"/>
-    <hyperlink ref="A37" r:id="rId652"/>
-    <hyperlink ref="A38" r:id="rId653"/>
-    <hyperlink ref="A39" r:id="rId654"/>
-    <hyperlink ref="A40" r:id="rId655"/>
-    <hyperlink ref="A41" r:id="rId656"/>
-    <hyperlink ref="A42" r:id="rId657"/>
-    <hyperlink ref="A43" r:id="rId658"/>
-    <hyperlink ref="A44" r:id="rId659"/>
-    <hyperlink ref="A45" r:id="rId660"/>
-    <hyperlink ref="A2" r:id="rId617"/>
-    <hyperlink ref="A3" r:id="rId618"/>
-    <hyperlink ref="A4" r:id="rId619"/>
-    <hyperlink ref="A5" r:id="rId620"/>
-    <hyperlink ref="A6" r:id="rId621"/>
-    <hyperlink ref="A7" r:id="rId622"/>
-    <hyperlink ref="A8" r:id="rId623"/>
-    <hyperlink ref="A9" r:id="rId624"/>
-    <hyperlink ref="A10" r:id="rId625"/>
-    <hyperlink ref="A11" r:id="rId626"/>
-    <hyperlink ref="A12" r:id="rId627"/>
-    <hyperlink ref="A13" r:id="rId628"/>
-    <hyperlink ref="A14" r:id="rId629"/>
-    <hyperlink ref="A15" r:id="rId630"/>
-    <hyperlink ref="A16" r:id="rId631"/>
-    <hyperlink ref="A17" r:id="rId632"/>
-    <hyperlink ref="A18" r:id="rId633"/>
-    <hyperlink ref="A19" r:id="rId634"/>
-    <hyperlink ref="A20" r:id="rId635"/>
-    <hyperlink ref="A21" r:id="rId636"/>
-    <hyperlink ref="A22" r:id="rId637"/>
-    <hyperlink ref="A23" r:id="rId638"/>
-    <hyperlink ref="A24" r:id="rId639"/>
-    <hyperlink ref="A25" r:id="rId640"/>
-    <hyperlink ref="A26" r:id="rId641"/>
-    <hyperlink ref="A27" r:id="rId642"/>
-    <hyperlink ref="A28" r:id="rId643"/>
-    <hyperlink ref="A29" r:id="rId644"/>
-    <hyperlink ref="A30" r:id="rId645"/>
-    <hyperlink ref="A31" r:id="rId646"/>
-    <hyperlink ref="A32" r:id="rId647"/>
-    <hyperlink ref="A33" r:id="rId648"/>
-    <hyperlink ref="A34" r:id="rId649"/>
-    <hyperlink ref="A35" r:id="rId650"/>
-    <hyperlink ref="A36" r:id="rId651"/>
-    <hyperlink ref="A37" r:id="rId652"/>
-    <hyperlink ref="A38" r:id="rId653"/>
-    <hyperlink ref="A39" r:id="rId654"/>
-    <hyperlink ref="A40" r:id="rId655"/>
-    <hyperlink ref="A41" r:id="rId656"/>
-    <hyperlink ref="A42" r:id="rId657"/>
-    <hyperlink ref="A43" r:id="rId658"/>
-    <hyperlink ref="A44" r:id="rId659"/>
-    <hyperlink ref="A45" r:id="rId660"/>
-    <hyperlink ref="A2" r:id="rId617"/>
-    <hyperlink ref="A3" r:id="rId618"/>
-    <hyperlink ref="A4" r:id="rId619"/>
-    <hyperlink ref="A5" r:id="rId620"/>
-    <hyperlink ref="A6" r:id="rId621"/>
-    <hyperlink ref="A7" r:id="rId622"/>
-    <hyperlink ref="A8" r:id="rId623"/>
-    <hyperlink ref="A9" r:id="rId624"/>
-    <hyperlink ref="A10" r:id="rId625"/>
-    <hyperlink ref="A11" r:id="rId626"/>
-    <hyperlink ref="A12" r:id="rId627"/>
-    <hyperlink ref="A13" r:id="rId628"/>
-    <hyperlink ref="A14" r:id="rId629"/>
-    <hyperlink ref="A15" r:id="rId630"/>
-    <hyperlink ref="A16" r:id="rId631"/>
-    <hyperlink ref="A17" r:id="rId632"/>
-    <hyperlink ref="A18" r:id="rId633"/>
-    <hyperlink ref="A19" r:id="rId634"/>
-    <hyperlink ref="A20" r:id="rId635"/>
-    <hyperlink ref="A21" r:id="rId636"/>
-    <hyperlink ref="A22" r:id="rId637"/>
-    <hyperlink ref="A23" r:id="rId638"/>
-    <hyperlink ref="A24" r:id="rId639"/>
-    <hyperlink ref="A25" r:id="rId640"/>
-    <hyperlink ref="A26" r:id="rId641"/>
-    <hyperlink ref="A27" r:id="rId642"/>
-    <hyperlink ref="A28" r:id="rId643"/>
-    <hyperlink ref="A29" r:id="rId644"/>
-    <hyperlink ref="A30" r:id="rId645"/>
-    <hyperlink ref="A31" r:id="rId646"/>
-    <hyperlink ref="A32" r:id="rId647"/>
-    <hyperlink ref="A33" r:id="rId648"/>
-    <hyperlink ref="A34" r:id="rId649"/>
-    <hyperlink ref="A35" r:id="rId650"/>
-    <hyperlink ref="A36" r:id="rId651"/>
-    <hyperlink ref="A37" r:id="rId652"/>
-    <hyperlink ref="A38" r:id="rId653"/>
-    <hyperlink ref="A39" r:id="rId654"/>
-    <hyperlink ref="A40" r:id="rId655"/>
-    <hyperlink ref="A41" r:id="rId656"/>
-    <hyperlink ref="A42" r:id="rId657"/>
-    <hyperlink ref="A43" r:id="rId658"/>
-    <hyperlink ref="A44" r:id="rId659"/>
-    <hyperlink ref="A45" r:id="rId660"/>
-    <hyperlink ref="A2" r:id="rId617"/>
-    <hyperlink ref="A3" r:id="rId618"/>
-    <hyperlink ref="A4" r:id="rId619"/>
-    <hyperlink ref="A5" r:id="rId620"/>
-    <hyperlink ref="A6" r:id="rId621"/>
-    <hyperlink ref="A7" r:id="rId622"/>
-    <hyperlink ref="A8" r:id="rId623"/>
-    <hyperlink ref="A9" r:id="rId624"/>
-    <hyperlink ref="A10" r:id="rId625"/>
-    <hyperlink ref="A11" r:id="rId626"/>
-    <hyperlink ref="A12" r:id="rId627"/>
-    <hyperlink ref="A13" r:id="rId628"/>
-    <hyperlink ref="A14" r:id="rId629"/>
-    <hyperlink ref="A15" r:id="rId630"/>
-    <hyperlink ref="A16" r:id="rId631"/>
-    <hyperlink ref="A17" r:id="rId632"/>
-    <hyperlink ref="A18" r:id="rId633"/>
-    <hyperlink ref="A19" r:id="rId634"/>
-    <hyperlink ref="A20" r:id="rId635"/>
-    <hyperlink ref="A21" r:id="rId636"/>
-    <hyperlink ref="A22" r:id="rId637"/>
-    <hyperlink ref="A23" r:id="rId638"/>
-    <hyperlink ref="A24" r:id="rId639"/>
-    <hyperlink ref="A25" r:id="rId640"/>
-    <hyperlink ref="A26" r:id="rId641"/>
-    <hyperlink ref="A27" r:id="rId642"/>
-    <hyperlink ref="A28" r:id="rId643"/>
-    <hyperlink ref="A29" r:id="rId644"/>
-    <hyperlink ref="A30" r:id="rId645"/>
-    <hyperlink ref="A31" r:id="rId646"/>
-    <hyperlink ref="A32" r:id="rId647"/>
-    <hyperlink ref="A33" r:id="rId648"/>
-    <hyperlink ref="A34" r:id="rId649"/>
-    <hyperlink ref="A35" r:id="rId650"/>
-    <hyperlink ref="A36" r:id="rId651"/>
-    <hyperlink ref="A37" r:id="rId652"/>
-    <hyperlink ref="A38" r:id="rId653"/>
-    <hyperlink ref="A39" r:id="rId654"/>
-    <hyperlink ref="A40" r:id="rId655"/>
-    <hyperlink ref="A41" r:id="rId656"/>
-    <hyperlink ref="A42" r:id="rId657"/>
-    <hyperlink ref="A43" r:id="rId658"/>
-    <hyperlink ref="A44" r:id="rId659"/>
-    <hyperlink ref="A45" r:id="rId660"/>
-    <hyperlink ref="A2" r:id="rId617"/>
-    <hyperlink ref="A3" r:id="rId618"/>
-    <hyperlink ref="A4" r:id="rId619"/>
-    <hyperlink ref="A5" r:id="rId620"/>
-    <hyperlink ref="A6" r:id="rId621"/>
-    <hyperlink ref="A7" r:id="rId622"/>
-    <hyperlink ref="A8" r:id="rId623"/>
-    <hyperlink ref="A9" r:id="rId624"/>
-    <hyperlink ref="A10" r:id="rId625"/>
-    <hyperlink ref="A11" r:id="rId626"/>
-    <hyperlink ref="A12" r:id="rId627"/>
-    <hyperlink ref="A13" r:id="rId628"/>
-    <hyperlink ref="A14" r:id="rId629"/>
-    <hyperlink ref="A15" r:id="rId630"/>
-    <hyperlink ref="A16" r:id="rId631"/>
-    <hyperlink ref="A17" r:id="rId632"/>
-    <hyperlink ref="A18" r:id="rId633"/>
-    <hyperlink ref="A19" r:id="rId634"/>
-    <hyperlink ref="A20" r:id="rId635"/>
-    <hyperlink ref="A21" r:id="rId636"/>
-    <hyperlink ref="A22" r:id="rId637"/>
-    <hyperlink ref="A23" r:id="rId638"/>
-    <hyperlink ref="A24" r:id="rId639"/>
-    <hyperlink ref="A25" r:id="rId640"/>
-    <hyperlink ref="A26" r:id="rId641"/>
-    <hyperlink ref="A27" r:id="rId642"/>
-    <hyperlink ref="A28" r:id="rId643"/>
-    <hyperlink ref="A29" r:id="rId644"/>
-    <hyperlink ref="A30" r:id="rId645"/>
-    <hyperlink ref="A31" r:id="rId646"/>
-    <hyperlink ref="A32" r:id="rId647"/>
-    <hyperlink ref="A33" r:id="rId648"/>
-    <hyperlink ref="A34" r:id="rId649"/>
-    <hyperlink ref="A35" r:id="rId650"/>
-    <hyperlink ref="A36" r:id="rId651"/>
-    <hyperlink ref="A37" r:id="rId652"/>
-    <hyperlink ref="A38" r:id="rId653"/>
-    <hyperlink ref="A39" r:id="rId654"/>
-    <hyperlink ref="A40" r:id="rId655"/>
-    <hyperlink ref="A41" r:id="rId656"/>
-    <hyperlink ref="A42" r:id="rId657"/>
-    <hyperlink ref="A43" r:id="rId658"/>
-    <hyperlink ref="A44" r:id="rId659"/>
-    <hyperlink ref="A45" r:id="rId660"/>
-    <hyperlink ref="A2" r:id="rId617"/>
-    <hyperlink ref="A3" r:id="rId618"/>
-    <hyperlink ref="A4" r:id="rId619"/>
-    <hyperlink ref="A5" r:id="rId620"/>
-    <hyperlink ref="A6" r:id="rId621"/>
-    <hyperlink ref="A7" r:id="rId622"/>
-    <hyperlink ref="A8" r:id="rId623"/>
-    <hyperlink ref="A9" r:id="rId624"/>
-    <hyperlink ref="A10" r:id="rId625"/>
-    <hyperlink ref="A11" r:id="rId626"/>
-    <hyperlink ref="A12" r:id="rId627"/>
-    <hyperlink ref="A13" r:id="rId628"/>
-    <hyperlink ref="A14" r:id="rId629"/>
-    <hyperlink ref="A15" r:id="rId630"/>
-    <hyperlink ref="A16" r:id="rId631"/>
-    <hyperlink ref="A17" r:id="rId632"/>
-    <hyperlink ref="A18" r:id="rId633"/>
-    <hyperlink ref="A19" r:id="rId634"/>
-    <hyperlink ref="A20" r:id="rId635"/>
-    <hyperlink ref="A21" r:id="rId636"/>
-    <hyperlink ref="A22" r:id="rId637"/>
-    <hyperlink ref="A23" r:id="rId638"/>
-    <hyperlink ref="A24" r:id="rId639"/>
-    <hyperlink ref="A25" r:id="rId640"/>
-    <hyperlink ref="A26" r:id="rId641"/>
-    <hyperlink ref="A27" r:id="rId642"/>
-    <hyperlink ref="A28" r:id="rId643"/>
-    <hyperlink ref="A29" r:id="rId644"/>
-    <hyperlink ref="A30" r:id="rId645"/>
-    <hyperlink ref="A31" r:id="rId646"/>
-    <hyperlink ref="A32" r:id="rId647"/>
-    <hyperlink ref="A33" r:id="rId648"/>
-    <hyperlink ref="A34" r:id="rId649"/>
-    <hyperlink ref="A35" r:id="rId650"/>
-    <hyperlink ref="A36" r:id="rId651"/>
-    <hyperlink ref="A37" r:id="rId652"/>
-    <hyperlink ref="A38" r:id="rId653"/>
-    <hyperlink ref="A39" r:id="rId654"/>
-    <hyperlink ref="A40" r:id="rId655"/>
-    <hyperlink ref="A41" r:id="rId656"/>
-    <hyperlink ref="A42" r:id="rId657"/>
-    <hyperlink ref="A43" r:id="rId658"/>
-    <hyperlink ref="A44" r:id="rId659"/>
-    <hyperlink ref="A45" r:id="rId660"/>
-    <hyperlink ref="A2" r:id="rId617"/>
-    <hyperlink ref="A3" r:id="rId618"/>
-    <hyperlink ref="A4" r:id="rId619"/>
-    <hyperlink ref="A5" r:id="rId620"/>
-    <hyperlink ref="A6" r:id="rId621"/>
-    <hyperlink ref="A7" r:id="rId622"/>
-    <hyperlink ref="A8" r:id="rId623"/>
-    <hyperlink ref="A9" r:id="rId624"/>
-    <hyperlink ref="A10" r:id="rId625"/>
-    <hyperlink ref="A11" r:id="rId626"/>
-    <hyperlink ref="A12" r:id="rId627"/>
-    <hyperlink ref="A13" r:id="rId628"/>
-    <hyperlink ref="A14" r:id="rId629"/>
-    <hyperlink ref="A15" r:id="rId630"/>
-    <hyperlink ref="A16" r:id="rId631"/>
-    <hyperlink ref="A17" r:id="rId632"/>
-    <hyperlink ref="A18" r:id="rId633"/>
-    <hyperlink ref="A19" r:id="rId634"/>
-    <hyperlink ref="A20" r:id="rId635"/>
-    <hyperlink ref="A21" r:id="rId636"/>
-    <hyperlink ref="A22" r:id="rId637"/>
-    <hyperlink ref="A23" r:id="rId638"/>
-    <hyperlink ref="A24" r:id="rId639"/>
-    <hyperlink ref="A25" r:id="rId640"/>
-    <hyperlink ref="A26" r:id="rId641"/>
-    <hyperlink ref="A27" r:id="rId642"/>
-    <hyperlink ref="A28" r:id="rId643"/>
-    <hyperlink ref="A29" r:id="rId644"/>
-    <hyperlink ref="A30" r:id="rId645"/>
-    <hyperlink ref="A31" r:id="rId646"/>
-    <hyperlink ref="A32" r:id="rId647"/>
-    <hyperlink ref="A33" r:id="rId648"/>
-    <hyperlink ref="A34" r:id="rId649"/>
-    <hyperlink ref="A35" r:id="rId650"/>
-    <hyperlink ref="A36" r:id="rId651"/>
-    <hyperlink ref="A37" r:id="rId652"/>
-    <hyperlink ref="A38" r:id="rId653"/>
-    <hyperlink ref="A39" r:id="rId654"/>
-    <hyperlink ref="A40" r:id="rId655"/>
-    <hyperlink ref="A41" r:id="rId656"/>
-    <hyperlink ref="A42" r:id="rId657"/>
-    <hyperlink ref="A43" r:id="rId658"/>
-    <hyperlink ref="A44" r:id="rId659"/>
-    <hyperlink ref="A45" r:id="rId660"/>
-    <hyperlink ref="A2" r:id="rId617"/>
-    <hyperlink ref="A3" r:id="rId618"/>
-    <hyperlink ref="A4" r:id="rId619"/>
-    <hyperlink ref="A5" r:id="rId620"/>
-    <hyperlink ref="A6" r:id="rId621"/>
-    <hyperlink ref="A7" r:id="rId622"/>
-    <hyperlink ref="A8" r:id="rId623"/>
-    <hyperlink ref="A9" r:id="rId624"/>
-    <hyperlink ref="A10" r:id="rId625"/>
-    <hyperlink ref="A11" r:id="rId626"/>
-    <hyperlink ref="A12" r:id="rId627"/>
-    <hyperlink ref="A13" r:id="rId628"/>
-    <hyperlink ref="A14" r:id="rId629"/>
-    <hyperlink ref="A15" r:id="rId630"/>
-    <hyperlink ref="A16" r:id="rId631"/>
-    <hyperlink ref="A17" r:id="rId632"/>
-    <hyperlink ref="A18" r:id="rId633"/>
-    <hyperlink ref="A19" r:id="rId634"/>
-    <hyperlink ref="A20" r:id="rId635"/>
-    <hyperlink ref="A21" r:id="rId636"/>
-    <hyperlink ref="A22" r:id="rId637"/>
-    <hyperlink ref="A23" r:id="rId638"/>
-    <hyperlink ref="A24" r:id="rId639"/>
-    <hyperlink ref="A25" r:id="rId640"/>
-    <hyperlink ref="A26" r:id="rId641"/>
-    <hyperlink ref="A27" r:id="rId642"/>
-    <hyperlink ref="A28" r:id="rId643"/>
-    <hyperlink ref="A29" r:id="rId644"/>
-    <hyperlink ref="A30" r:id="rId645"/>
-    <hyperlink ref="A31" r:id="rId646"/>
-    <hyperlink ref="A32" r:id="rId647"/>
-    <hyperlink ref="A33" r:id="rId648"/>
-    <hyperlink ref="A34" r:id="rId649"/>
-    <hyperlink ref="A35" r:id="rId650"/>
-    <hyperlink ref="A36" r:id="rId651"/>
-    <hyperlink ref="A37" r:id="rId652"/>
-    <hyperlink ref="A38" r:id="rId653"/>
-    <hyperlink ref="A39" r:id="rId654"/>
-    <hyperlink ref="A40" r:id="rId655"/>
-    <hyperlink ref="A41" r:id="rId656"/>
-    <hyperlink ref="A42" r:id="rId657"/>
-    <hyperlink ref="A43" r:id="rId658"/>
-    <hyperlink ref="A44" r:id="rId659"/>
-    <hyperlink ref="A45" r:id="rId660"/>
-    <hyperlink ref="A2" r:id="rId617"/>
-    <hyperlink ref="A3" r:id="rId618"/>
-    <hyperlink ref="A4" r:id="rId619"/>
-    <hyperlink ref="A5" r:id="rId620"/>
-    <hyperlink ref="A6" r:id="rId621"/>
-    <hyperlink ref="A7" r:id="rId622"/>
-    <hyperlink ref="A8" r:id="rId623"/>
-    <hyperlink ref="A9" r:id="rId624"/>
-    <hyperlink ref="A10" r:id="rId625"/>
-    <hyperlink ref="A11" r:id="rId626"/>
-    <hyperlink ref="A12" r:id="rId627"/>
-    <hyperlink ref="A13" r:id="rId628"/>
-    <hyperlink ref="A14" r:id="rId629"/>
-    <hyperlink ref="A15" r:id="rId630"/>
-    <hyperlink ref="A16" r:id="rId631"/>
-    <hyperlink ref="A17" r:id="rId632"/>
-    <hyperlink ref="A18" r:id="rId633"/>
-    <hyperlink ref="A19" r:id="rId634"/>
-    <hyperlink ref="A20" r:id="rId635"/>
-    <hyperlink ref="A21" r:id="rId636"/>
-    <hyperlink ref="A22" r:id="rId637"/>
-    <hyperlink ref="A23" r:id="rId638"/>
-    <hyperlink ref="A24" r:id="rId639"/>
-    <hyperlink ref="A25" r:id="rId640"/>
-    <hyperlink ref="A26" r:id="rId641"/>
-    <hyperlink ref="A27" r:id="rId642"/>
-    <hyperlink ref="A28" r:id="rId643"/>
-    <hyperlink ref="A29" r:id="rId644"/>
-    <hyperlink ref="A30" r:id="rId645"/>
-    <hyperlink ref="A31" r:id="rId646"/>
-    <hyperlink ref="A32" r:id="rId647"/>
-    <hyperlink ref="A33" r:id="rId648"/>
-    <hyperlink ref="A34" r:id="rId649"/>
-    <hyperlink ref="A35" r:id="rId650"/>
-    <hyperlink ref="A36" r:id="rId651"/>
-    <hyperlink ref="A37" r:id="rId652"/>
-    <hyperlink ref="A38" r:id="rId653"/>
-    <hyperlink ref="A39" r:id="rId654"/>
-    <hyperlink ref="A40" r:id="rId655"/>
-    <hyperlink ref="A41" r:id="rId656"/>
-    <hyperlink ref="A42" r:id="rId657"/>
-    <hyperlink ref="A43" r:id="rId658"/>
-    <hyperlink ref="A44" r:id="rId659"/>
-    <hyperlink ref="A45" r:id="rId660"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
+    <hyperlink ref="A2" r:id="rId1057"/>
+    <hyperlink ref="A3" r:id="rId1058"/>
+    <hyperlink ref="A4" r:id="rId1059"/>
+    <hyperlink ref="A5" r:id="rId1060"/>
+    <hyperlink ref="A6" r:id="rId1061"/>
+    <hyperlink ref="A7" r:id="rId1062"/>
+    <hyperlink ref="A8" r:id="rId1063"/>
+    <hyperlink ref="A9" r:id="rId1064"/>
+    <hyperlink ref="A10" r:id="rId1065"/>
+    <hyperlink ref="A11" r:id="rId1066"/>
+    <hyperlink ref="A12" r:id="rId1067"/>
+    <hyperlink ref="A13" r:id="rId1068"/>
+    <hyperlink ref="A14" r:id="rId1069"/>
+    <hyperlink ref="A15" r:id="rId1070"/>
+    <hyperlink ref="A16" r:id="rId1071"/>
+    <hyperlink ref="A17" r:id="rId1072"/>
+    <hyperlink ref="A18" r:id="rId1073"/>
+    <hyperlink ref="A19" r:id="rId1074"/>
+    <hyperlink ref="A20" r:id="rId1075"/>
+    <hyperlink ref="A21" r:id="rId1076"/>
+    <hyperlink ref="A22" r:id="rId1077"/>
+    <hyperlink ref="A23" r:id="rId1078"/>
+    <hyperlink ref="A24" r:id="rId1079"/>
+    <hyperlink ref="A25" r:id="rId1080"/>
+    <hyperlink ref="A26" r:id="rId1081"/>
+    <hyperlink ref="A27" r:id="rId1082"/>
+    <hyperlink ref="A28" r:id="rId1083"/>
+    <hyperlink ref="A29" r:id="rId1084"/>
+    <hyperlink ref="A30" r:id="rId1085"/>
+    <hyperlink ref="A31" r:id="rId1086"/>
+    <hyperlink ref="A32" r:id="rId1087"/>
+    <hyperlink ref="A33" r:id="rId1088"/>
+    <hyperlink ref="A34" r:id="rId1089"/>
+    <hyperlink ref="A35" r:id="rId1090"/>
+    <hyperlink ref="A36" r:id="rId1091"/>
+    <hyperlink ref="A37" r:id="rId1092"/>
+    <hyperlink ref="A38" r:id="rId1093"/>
+    <hyperlink ref="A39" r:id="rId1094"/>
+    <hyperlink ref="A40" r:id="rId1095"/>
+    <hyperlink ref="A41" r:id="rId1096"/>
+    <hyperlink ref="A42" r:id="rId1097"/>
+    <hyperlink ref="A43" r:id="rId1098"/>
+    <hyperlink ref="A44" r:id="rId1099"/>
+    <hyperlink ref="A45" r:id="rId1100"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
